--- a/Data/light_curve.xlsx
+++ b/Data/light_curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardbao/Projects/Cyberpunk/oumuamua/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD0CDF-01D7-C54E-9F70-B76A4221044A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563AD25F-166C-1748-BA52-8258F3D028D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{28D63E42-AF1B-4244-B17E-8977D21AF5F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="8">
   <si>
     <t>g</t>
   </si>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +77,11 @@
       <color theme="1"/>
       <name val="Times"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +104,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEA49DC-628B-FB42-BE0E-097E782FB610}">
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:E339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F1" sqref="F1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,10 +451,8 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,10 +468,8 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,10 +485,8 @@
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,10 +502,8 @@
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +519,8 @@
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,10 +536,8 @@
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,10 +553,8 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,10 +570,8 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,10 +587,8 @@
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,10 +604,8 @@
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,10 +621,8 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,10 +638,8 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,10 +655,8 @@
       <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,10 +672,8 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,10 +689,8 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,10 +706,8 @@
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,10 +723,8 @@
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,10 +740,8 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,10 +757,8 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,10 +774,8 @@
       <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,10 +791,8 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,10 +808,8 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,10 +825,8 @@
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +842,8 @@
       <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,10 +859,8 @@
       <c r="E25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,10 +876,8 @@
       <c r="E26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,10 +893,8 @@
       <c r="E27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,10 +910,8 @@
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,10 +927,8 @@
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -991,10 +944,8 @@
       <c r="E30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1010,10 +961,8 @@
       <c r="E31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1029,10 +978,8 @@
       <c r="E32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1048,10 +995,8 @@
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1067,10 +1012,8 @@
       <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1086,10 +1029,8 @@
       <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1105,10 +1046,8 @@
       <c r="E36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1124,10 +1063,8 @@
       <c r="E37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1143,10 +1080,8 @@
       <c r="E38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1162,10 +1097,8 @@
       <c r="E39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1181,10 +1114,8 @@
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1200,10 +1131,8 @@
       <c r="E41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1219,10 +1148,8 @@
       <c r="E42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1238,10 +1165,8 @@
       <c r="E43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1257,10 +1182,8 @@
       <c r="E44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -1276,10 +1199,8 @@
       <c r="E45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1295,10 +1216,8 @@
       <c r="E46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1314,10 +1233,8 @@
       <c r="E47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1333,10 +1250,8 @@
       <c r="E48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -1352,10 +1267,8 @@
       <c r="E49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1371,10 +1284,8 @@
       <c r="E50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,10 +1301,8 @@
       <c r="E51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1409,10 +1318,8 @@
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1428,10 +1335,8 @@
       <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1447,10 +1352,8 @@
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1466,10 +1369,8 @@
       <c r="E55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1485,10 +1386,8 @@
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -1504,10 +1403,8 @@
       <c r="E57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1523,10 +1420,8 @@
       <c r="E58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -1542,10 +1437,8 @@
       <c r="E59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -1561,10 +1454,8 @@
       <c r="E60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -1580,10 +1471,8 @@
       <c r="E61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1599,10 +1488,8 @@
       <c r="E62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,10 +1505,8 @@
       <c r="E63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1637,10 +1522,8 @@
       <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -1656,10 +1539,8 @@
       <c r="E65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -1675,10 +1556,8 @@
       <c r="E66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -1694,10 +1573,8 @@
       <c r="E67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -1713,10 +1590,8 @@
       <c r="E68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -1732,10 +1607,8 @@
       <c r="E69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -1751,10 +1624,8 @@
       <c r="E70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -1770,10 +1641,8 @@
       <c r="E71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1789,10 +1658,8 @@
       <c r="E72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1808,10 +1675,8 @@
       <c r="E73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -1827,10 +1692,8 @@
       <c r="E74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -1846,10 +1709,8 @@
       <c r="E75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -1865,10 +1726,8 @@
       <c r="E76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -1884,10 +1743,8 @@
       <c r="E77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -1903,10 +1760,8 @@
       <c r="E78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -1922,10 +1777,8 @@
       <c r="E79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -1941,10 +1794,8 @@
       <c r="E80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -1960,10 +1811,8 @@
       <c r="E81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1979,10 +1828,8 @@
       <c r="E82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1998,10 +1845,8 @@
       <c r="E83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2017,10 +1862,8 @@
       <c r="E84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -2036,10 +1879,8 @@
       <c r="E85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -2055,10 +1896,8 @@
       <c r="E86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -2074,10 +1913,8 @@
       <c r="E87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -2093,10 +1930,8 @@
       <c r="E88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -2112,10 +1947,8 @@
       <c r="E89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
@@ -2131,10 +1964,8 @@
       <c r="E90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -2150,10 +1981,8 @@
       <c r="E91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -2169,10 +1998,8 @@
       <c r="E92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -2188,10 +2015,8 @@
       <c r="E93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -2207,10 +2032,8 @@
       <c r="E94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -2226,10 +2049,8 @@
       <c r="E95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
@@ -2245,10 +2066,8 @@
       <c r="E96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
@@ -2264,10 +2083,8 @@
       <c r="E97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2283,10 +2100,8 @@
       <c r="E98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
@@ -2302,10 +2117,8 @@
       <c r="E99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -2321,10 +2134,8 @@
       <c r="E100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
@@ -2340,10 +2151,8 @@
       <c r="E101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -2359,10 +2168,8 @@
       <c r="E102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -2378,10 +2185,8 @@
       <c r="E103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -2397,10 +2202,8 @@
       <c r="E104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -2416,10 +2219,8 @@
       <c r="E105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
@@ -2435,10 +2236,8 @@
       <c r="E106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -2454,10 +2253,8 @@
       <c r="E107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -2473,10 +2270,8 @@
       <c r="E108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -2492,10 +2287,8 @@
       <c r="E109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
@@ -2511,10 +2304,8 @@
       <c r="E110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
@@ -2530,10 +2321,8 @@
       <c r="E111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
@@ -2549,10 +2338,8 @@
       <c r="E112" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -2568,10 +2355,8 @@
       <c r="E113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
@@ -2587,10 +2372,8 @@
       <c r="E114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
@@ -2606,10 +2389,8 @@
       <c r="E115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -2625,10 +2406,8 @@
       <c r="E116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -2644,10 +2423,8 @@
       <c r="E117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -2663,10 +2440,8 @@
       <c r="E118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -2682,10 +2457,8 @@
       <c r="E119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -2701,10 +2474,8 @@
       <c r="E120" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -2720,10 +2491,8 @@
       <c r="E121" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
@@ -2739,10 +2508,8 @@
       <c r="E122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>3</v>
       </c>
@@ -2758,10 +2525,8 @@
       <c r="E123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -2777,10 +2542,8 @@
       <c r="E124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -2796,10 +2559,8 @@
       <c r="E125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
@@ -2815,10 +2576,8 @@
       <c r="E126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
@@ -2834,10 +2593,8 @@
       <c r="E127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -2853,10 +2610,8 @@
       <c r="E128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
@@ -2872,10 +2627,8 @@
       <c r="E129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -2891,10 +2644,8 @@
       <c r="E130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -2910,10 +2661,8 @@
       <c r="E131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -2929,10 +2678,8 @@
       <c r="E132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
@@ -2948,10 +2695,8 @@
       <c r="E133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -2967,10 +2712,8 @@
       <c r="E134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
@@ -2986,10 +2729,8 @@
       <c r="E135" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -3005,10 +2746,8 @@
       <c r="E136" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
@@ -3024,10 +2763,8 @@
       <c r="E137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -3043,10 +2780,8 @@
       <c r="E138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -3062,10 +2797,8 @@
       <c r="E139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -3081,10 +2814,8 @@
       <c r="E140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -3100,10 +2831,8 @@
       <c r="E141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -3119,10 +2848,8 @@
       <c r="E142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
@@ -3138,10 +2865,8 @@
       <c r="E143" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
@@ -3157,10 +2882,8 @@
       <c r="E144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
         <v>4</v>
       </c>
@@ -3176,10 +2899,8 @@
       <c r="E145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
         <v>4</v>
       </c>
@@ -3195,10 +2916,8 @@
       <c r="E146" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
         <v>4</v>
       </c>
@@ -3214,10 +2933,8 @@
       <c r="E147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
         <v>4</v>
       </c>
@@ -3233,10 +2950,8 @@
       <c r="E148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
         <v>4</v>
       </c>
@@ -3252,10 +2967,8 @@
       <c r="E149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
         <v>4</v>
       </c>
@@ -3271,10 +2984,8 @@
       <c r="E150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
         <v>4</v>
       </c>
@@ -3290,10 +3001,8 @@
       <c r="E151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
         <v>4</v>
       </c>
@@ -3309,10 +3018,8 @@
       <c r="E152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
         <v>4</v>
       </c>
@@ -3328,10 +3035,8 @@
       <c r="E153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
         <v>4</v>
       </c>
@@ -3347,10 +3052,8 @@
       <c r="E154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
         <v>4</v>
       </c>
@@ -3366,10 +3069,8 @@
       <c r="E155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
         <v>4</v>
       </c>
@@ -3385,10 +3086,8 @@
       <c r="E156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
@@ -3404,10 +3103,8 @@
       <c r="E157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
         <v>4</v>
       </c>
@@ -3423,10 +3120,8 @@
       <c r="E158" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
         <v>4</v>
       </c>
@@ -3442,10 +3137,8 @@
       <c r="E159" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3461,10 +3154,8 @@
       <c r="E160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
         <v>4</v>
       </c>
@@ -3480,10 +3171,8 @@
       <c r="E161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
         <v>4</v>
       </c>
@@ -3499,10 +3188,8 @@
       <c r="E162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>4</v>
       </c>
@@ -3518,10 +3205,8 @@
       <c r="E163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
         <v>4</v>
       </c>
@@ -3537,10 +3222,8 @@
       <c r="E164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
         <v>4</v>
       </c>
@@ -3556,10 +3239,8 @@
       <c r="E165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
@@ -3575,10 +3256,8 @@
       <c r="E166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>4</v>
       </c>
@@ -3594,10 +3273,8 @@
       <c r="E167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
@@ -3613,10 +3290,8 @@
       <c r="E168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
         <v>4</v>
       </c>
@@ -3632,10 +3307,8 @@
       <c r="E169" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
         <v>4</v>
       </c>
@@ -3651,10 +3324,8 @@
       <c r="E170" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
         <v>4</v>
       </c>
@@ -3670,10 +3341,8 @@
       <c r="E171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
         <v>4</v>
       </c>
@@ -3689,10 +3358,8 @@
       <c r="E172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
         <v>4</v>
       </c>
@@ -3708,10 +3375,8 @@
       <c r="E173" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
         <v>4</v>
       </c>
@@ -3727,10 +3392,8 @@
       <c r="E174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -3746,10 +3409,8 @@
       <c r="E175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
@@ -3765,10 +3426,8 @@
       <c r="E176" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
         <v>4</v>
       </c>
@@ -3784,10 +3443,8 @@
       <c r="E177" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
         <v>4</v>
       </c>
@@ -3803,10 +3460,8 @@
       <c r="E178" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
         <v>4</v>
       </c>
@@ -3822,10 +3477,8 @@
       <c r="E179" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
@@ -3841,10 +3494,8 @@
       <c r="E180" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
         <v>4</v>
       </c>
@@ -3860,10 +3511,8 @@
       <c r="E181" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
         <v>4</v>
       </c>
@@ -3879,10 +3528,8 @@
       <c r="E182" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
@@ -3898,10 +3545,8 @@
       <c r="E183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
         <v>4</v>
       </c>
@@ -3917,10 +3562,8 @@
       <c r="E184" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
         <v>4</v>
       </c>
@@ -3936,10 +3579,8 @@
       <c r="E185" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
         <v>4</v>
       </c>
@@ -3955,10 +3596,8 @@
       <c r="E186" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
         <v>4</v>
       </c>
@@ -3974,10 +3613,8 @@
       <c r="E187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
@@ -3993,10 +3630,8 @@
       <c r="E188" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
         <v>4</v>
       </c>
@@ -4012,10 +3647,8 @@
       <c r="E189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
         <v>4</v>
       </c>
@@ -4031,10 +3664,8 @@
       <c r="E190" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
         <v>4</v>
       </c>
@@ -4050,10 +3681,8 @@
       <c r="E191" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
         <v>4</v>
       </c>
@@ -4069,10 +3698,8 @@
       <c r="E192" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
         <v>4</v>
       </c>
@@ -4088,10 +3715,8 @@
       <c r="E193" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
         <v>4</v>
       </c>
@@ -4107,10 +3732,8 @@
       <c r="E194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
         <v>4</v>
       </c>
@@ -4126,10 +3749,8 @@
       <c r="E195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
         <v>4</v>
       </c>
@@ -4145,10 +3766,8 @@
       <c r="E196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
         <v>4</v>
       </c>
@@ -4164,10 +3783,8 @@
       <c r="E197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
         <v>4</v>
       </c>
@@ -4183,10 +3800,8 @@
       <c r="E198" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>4</v>
       </c>
@@ -4202,10 +3817,8 @@
       <c r="E199" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
         <v>4</v>
       </c>
@@ -4221,10 +3834,8 @@
       <c r="E200" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
         <v>4</v>
       </c>
@@ -4240,10 +3851,8 @@
       <c r="E201" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
         <v>4</v>
       </c>
@@ -4259,10 +3868,8 @@
       <c r="E202" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>4</v>
       </c>
@@ -4278,10 +3885,8 @@
       <c r="E203" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
         <v>4</v>
       </c>
@@ -4297,10 +3902,8 @@
       <c r="E204" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
         <v>4</v>
       </c>
@@ -4316,10 +3919,8 @@
       <c r="E205" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
         <v>4</v>
       </c>
@@ -4335,10 +3936,8 @@
       <c r="E206" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
         <v>4</v>
       </c>
@@ -4354,10 +3953,8 @@
       <c r="E207" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
         <v>4</v>
       </c>
@@ -4373,10 +3970,8 @@
       <c r="E208" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
         <v>4</v>
       </c>
@@ -4392,10 +3987,8 @@
       <c r="E209" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
         <v>4</v>
       </c>
@@ -4411,10 +4004,8 @@
       <c r="E210" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
         <v>4</v>
       </c>
@@ -4430,10 +4021,8 @@
       <c r="E211" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -4449,10 +4038,8 @@
       <c r="E212" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -4468,10 +4055,8 @@
       <c r="E213" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
         <v>4</v>
       </c>
@@ -4487,10 +4072,8 @@
       <c r="E214" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
         <v>4</v>
       </c>
@@ -4506,10 +4089,8 @@
       <c r="E215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
         <v>4</v>
       </c>
@@ -4525,10 +4106,8 @@
       <c r="E216" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
         <v>4</v>
       </c>
@@ -4544,10 +4123,8 @@
       <c r="E217" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
         <v>4</v>
       </c>
@@ -4563,10 +4140,8 @@
       <c r="E218" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
         <v>4</v>
       </c>
@@ -4582,10 +4157,8 @@
       <c r="E219" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
         <v>4</v>
       </c>
@@ -4601,10 +4174,8 @@
       <c r="E220" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
         <v>4</v>
       </c>
@@ -4620,10 +4191,8 @@
       <c r="E221" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
@@ -4639,10 +4208,8 @@
       <c r="E222" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
         <v>4</v>
       </c>
@@ -4658,10 +4225,8 @@
       <c r="E223" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
         <v>4</v>
       </c>
@@ -4677,10 +4242,8 @@
       <c r="E224" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
         <v>4</v>
       </c>
@@ -4696,10 +4259,8 @@
       <c r="E225" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -4715,10 +4276,8 @@
       <c r="E226" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
         <v>4</v>
       </c>
@@ -4734,10 +4293,8 @@
       <c r="E227" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
         <v>4</v>
       </c>
@@ -4753,10 +4310,8 @@
       <c r="E228" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
         <v>4</v>
       </c>
@@ -4772,10 +4327,8 @@
       <c r="E229" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
         <v>4</v>
       </c>
@@ -4791,10 +4344,8 @@
       <c r="E230" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
         <v>4</v>
       </c>
@@ -4810,10 +4361,8 @@
       <c r="E231" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
         <v>4</v>
       </c>
@@ -4829,10 +4378,8 @@
       <c r="E232" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
         <v>4</v>
       </c>
@@ -4848,10 +4395,8 @@
       <c r="E233" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
         <v>4</v>
       </c>
@@ -4867,10 +4412,8 @@
       <c r="E234" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
         <v>4</v>
       </c>
@@ -4886,10 +4429,8 @@
       <c r="E235" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
         <v>4</v>
       </c>
@@ -4905,10 +4446,8 @@
       <c r="E236" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
         <v>4</v>
       </c>
@@ -4924,10 +4463,8 @@
       <c r="E237" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
         <v>4</v>
       </c>
@@ -4943,10 +4480,8 @@
       <c r="E238" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
         <v>4</v>
       </c>
@@ -4962,10 +4497,8 @@
       <c r="E239" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
         <v>4</v>
       </c>
@@ -4981,10 +4514,8 @@
       <c r="E240" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
         <v>4</v>
       </c>
@@ -5000,10 +4531,8 @@
       <c r="E241" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
         <v>4</v>
       </c>
@@ -5019,10 +4548,8 @@
       <c r="E242" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
         <v>1</v>
       </c>
@@ -5038,10 +4565,8 @@
       <c r="E243" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
         <v>1</v>
       </c>
@@ -5057,10 +4582,8 @@
       <c r="E244" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
         <v>1</v>
       </c>
@@ -5076,10 +4599,8 @@
       <c r="E245" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -5095,10 +4616,8 @@
       <c r="E246" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -5114,10 +4633,8 @@
       <c r="E247" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
         <v>0</v>
       </c>
@@ -5133,10 +4650,8 @@
       <c r="E248" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
         <v>1</v>
       </c>
@@ -5152,10 +4667,8 @@
       <c r="E249" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
@@ -5171,10 +4684,8 @@
       <c r="E250" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
         <v>1</v>
       </c>
@@ -5190,10 +4701,8 @@
       <c r="E251" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
         <v>5</v>
       </c>
@@ -5209,10 +4718,8 @@
       <c r="E252" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
@@ -5228,10 +4735,8 @@
       <c r="E253" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
@@ -5247,10 +4752,8 @@
       <c r="E254" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
@@ -5266,10 +4769,8 @@
       <c r="E255" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
@@ -5285,10 +4786,8 @@
       <c r="E256" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
         <v>5</v>
       </c>
@@ -5304,10 +4803,8 @@
       <c r="E257" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
         <v>5</v>
       </c>
@@ -5323,10 +4820,8 @@
       <c r="E258" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -5342,10 +4837,8 @@
       <c r="E259" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -5361,10 +4854,8 @@
       <c r="E260" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -5380,10 +4871,8 @@
       <c r="E261" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -5399,10 +4888,8 @@
       <c r="E262" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -5418,10 +4905,8 @@
       <c r="E263" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -5437,10 +4922,8 @@
       <c r="E264" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -5456,10 +4939,8 @@
       <c r="E265" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -5475,10 +4956,8 @@
       <c r="E266" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F266" s="1"/>
-      <c r="G266" s="1"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -5494,10 +4973,8 @@
       <c r="E267" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -5513,10 +4990,8 @@
       <c r="E268" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -5532,10 +5007,8 @@
       <c r="E269" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -5551,10 +5024,8 @@
       <c r="E270" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -5570,10 +5041,8 @@
       <c r="E271" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -5589,10 +5058,8 @@
       <c r="E272" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -5608,10 +5075,8 @@
       <c r="E273" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -5627,10 +5092,8 @@
       <c r="E274" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -5646,10 +5109,8 @@
       <c r="E275" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -5665,10 +5126,8 @@
       <c r="E276" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -5684,10 +5143,8 @@
       <c r="E277" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -5703,10 +5160,8 @@
       <c r="E278" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -5722,10 +5177,8 @@
       <c r="E279" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
@@ -5741,10 +5194,8 @@
       <c r="E280" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
         <v>5</v>
       </c>
@@ -5760,10 +5211,8 @@
       <c r="E281" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
         <v>5</v>
       </c>
@@ -5779,10 +5228,8 @@
       <c r="E282" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
@@ -5798,10 +5245,8 @@
       <c r="E283" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -5817,10 +5262,8 @@
       <c r="E284" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
@@ -5836,10 +5279,8 @@
       <c r="E285" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
         <v>6</v>
       </c>
@@ -5855,10 +5296,8 @@
       <c r="E286" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
         <v>6</v>
       </c>
@@ -5874,10 +5313,8 @@
       <c r="E287" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -5893,10 +5330,8 @@
       <c r="E288" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -5912,10 +5347,8 @@
       <c r="E289" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F289" s="1"/>
-      <c r="G289" s="1"/>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
         <v>6</v>
       </c>
@@ -5931,10 +5364,8 @@
       <c r="E290" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
         <v>6</v>
       </c>
@@ -5950,10 +5381,8 @@
       <c r="E291" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
         <v>7</v>
       </c>
@@ -5969,10 +5398,8 @@
       <c r="E292" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F292" s="1"/>
-      <c r="G292" s="1"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
         <v>7</v>
       </c>
@@ -5988,10 +5415,8 @@
       <c r="E293" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
         <v>7</v>
       </c>
@@ -6007,10 +5432,8 @@
       <c r="E294" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
         <v>7</v>
       </c>
@@ -6026,10 +5449,8 @@
       <c r="E295" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
         <v>7</v>
       </c>
@@ -6045,10 +5466,8 @@
       <c r="E296" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
         <v>7</v>
       </c>
@@ -6064,10 +5483,8 @@
       <c r="E297" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
         <v>7</v>
       </c>
@@ -6083,10 +5500,8 @@
       <c r="E298" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
         <v>7</v>
       </c>
@@ -6102,10 +5517,8 @@
       <c r="E299" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
         <v>7</v>
       </c>
@@ -6121,10 +5534,8 @@
       <c r="E300" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
         <v>1</v>
       </c>
@@ -6140,10 +5551,8 @@
       <c r="E301" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F301" s="1"/>
-      <c r="G301" s="1"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
         <v>1</v>
       </c>
@@ -6159,10 +5568,8 @@
       <c r="E302" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
         <v>1</v>
       </c>
@@ -6178,10 +5585,8 @@
       <c r="E303" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
         <v>1</v>
       </c>
@@ -6197,10 +5602,8 @@
       <c r="E304" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F304" s="1"/>
-      <c r="G304" s="1"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
         <v>1</v>
       </c>
@@ -6216,10 +5619,8 @@
       <c r="E305" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
         <v>1</v>
       </c>
@@ -6235,10 +5636,8 @@
       <c r="E306" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
         <v>1</v>
       </c>
@@ -6254,10 +5653,8 @@
       <c r="E307" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
         <v>1</v>
       </c>
@@ -6273,10 +5670,8 @@
       <c r="E308" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
         <v>1</v>
       </c>
@@ -6292,8 +5687,516 @@
       <c r="E309" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B310" s="3">
+        <v>58056.181299999997</v>
+      </c>
+      <c r="C310" s="3">
+        <v>22.891999999999999</v>
+      </c>
+      <c r="D310" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" s="3">
+        <v>58056.185100000002</v>
+      </c>
+      <c r="C311" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="D311" s="3">
+        <v>0.2515</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" s="3">
+        <v>58056.188800000004</v>
+      </c>
+      <c r="C312" s="3">
+        <v>23.170999999999999</v>
+      </c>
+      <c r="D312" s="3">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B313" s="3">
+        <v>58056.193500000001</v>
+      </c>
+      <c r="C313" s="3">
+        <v>23.292000000000002</v>
+      </c>
+      <c r="D313" s="3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B314" s="3">
+        <v>58056.197200000002</v>
+      </c>
+      <c r="C314" s="3">
+        <v>23.420999999999999</v>
+      </c>
+      <c r="D314" s="3">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="3">
+        <v>58056.201000000001</v>
+      </c>
+      <c r="C315" s="3">
+        <v>23.427</v>
+      </c>
+      <c r="D315" s="3">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B316" s="3">
+        <v>58056.205999999998</v>
+      </c>
+      <c r="C316" s="3">
+        <v>23.431000000000001</v>
+      </c>
+      <c r="D316" s="3">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B317" s="3">
+        <v>58056.209799999997</v>
+      </c>
+      <c r="C317" s="3">
+        <v>23.417000000000002</v>
+      </c>
+      <c r="D317" s="3">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="3">
+        <v>58056.213499999998</v>
+      </c>
+      <c r="C318" s="3">
+        <v>23.795999999999999</v>
+      </c>
+      <c r="D318" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" s="3">
+        <v>58056.217400000001</v>
+      </c>
+      <c r="C319" s="3">
+        <v>24.071000000000002</v>
+      </c>
+      <c r="D319" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" s="3">
+        <v>58056.221100000002</v>
+      </c>
+      <c r="C320" s="3">
+        <v>23.922999999999998</v>
+      </c>
+      <c r="D320" s="3">
+        <v>0.438</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321" s="3">
+        <v>58056.224800000004</v>
+      </c>
+      <c r="C321" s="3">
+        <v>24.175000000000001</v>
+      </c>
+      <c r="D321" s="3">
+        <v>0.5575</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="3">
+        <v>58056.228900000002</v>
+      </c>
+      <c r="C322" s="3">
+        <v>24.481999999999999</v>
+      </c>
+      <c r="D322" s="3">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" s="3">
+        <v>58056.2327</v>
+      </c>
+      <c r="C323" s="3">
+        <v>24.152999999999999</v>
+      </c>
+      <c r="D323" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="3">
+        <v>58056.236400000002</v>
+      </c>
+      <c r="C324" s="3">
+        <v>24.387</v>
+      </c>
+      <c r="D324" s="3">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="3">
+        <v>58056.240700000002</v>
+      </c>
+      <c r="C325" s="3">
+        <v>23.873000000000001</v>
+      </c>
+      <c r="D325" s="3">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326" s="3">
+        <v>58056.244400000003</v>
+      </c>
+      <c r="C326" s="3">
+        <v>24.135000000000002</v>
+      </c>
+      <c r="D326" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" s="3">
+        <v>58056.248200000002</v>
+      </c>
+      <c r="C327" s="3">
+        <v>23.806000000000001</v>
+      </c>
+      <c r="D327" s="3">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328" s="3">
+        <v>58056.252200000003</v>
+      </c>
+      <c r="C328" s="3">
+        <v>23.552</v>
+      </c>
+      <c r="D328" s="3">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" s="3">
+        <v>58056.255899999996</v>
+      </c>
+      <c r="C329" s="3">
+        <v>23.687000000000001</v>
+      </c>
+      <c r="D329" s="3">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" s="3">
+        <v>58056.259700000002</v>
+      </c>
+      <c r="C330" s="3">
+        <v>23.62</v>
+      </c>
+      <c r="D330" s="3">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B331" s="3">
+        <v>58056.263700000003</v>
+      </c>
+      <c r="C331" s="3">
+        <v>22.902999999999999</v>
+      </c>
+      <c r="D331" s="3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="3">
+        <v>58056.267500000002</v>
+      </c>
+      <c r="C332" s="3">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="D332" s="3">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B333" s="3">
+        <v>58056.271200000003</v>
+      </c>
+      <c r="C333" s="3">
+        <v>23.233000000000001</v>
+      </c>
+      <c r="D333" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" s="3">
+        <v>58056.275199999996</v>
+      </c>
+      <c r="C334" s="3">
+        <v>22.988</v>
+      </c>
+      <c r="D334" s="3">
+        <v>0.217</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" s="3">
+        <v>58056.278899999998</v>
+      </c>
+      <c r="C335" s="3">
+        <v>23.23</v>
+      </c>
+      <c r="D335" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B336" s="3">
+        <v>58056.282700000003</v>
+      </c>
+      <c r="C336" s="3">
+        <v>22.69</v>
+      </c>
+      <c r="D336" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B337" s="3">
+        <v>58056.286399999997</v>
+      </c>
+      <c r="C337" s="3">
+        <v>23.18</v>
+      </c>
+      <c r="D337" s="3">
+        <v>0.2505</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B338" s="3">
+        <v>58056.290200000003</v>
+      </c>
+      <c r="C338" s="3">
+        <v>22.748999999999999</v>
+      </c>
+      <c r="D338" s="3">
+        <v>0.1835</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B339" s="3">
+        <v>58056.293899999997</v>
+      </c>
+      <c r="C339" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="D339" s="3">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/light_curve.xlsx
+++ b/Data/light_curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardbao/Projects/Cyberpunk/oumuamua/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563AD25F-166C-1748-BA52-8258F3D028D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7489B8-50FB-0C42-8079-26F61794BF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{28D63E42-AF1B-4244-B17E-8977D21AF5F0}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -522,580 +522,580 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>58051.101155999997</v>
+        <v>58051.050352999999</v>
       </c>
       <c r="C6" s="1">
-        <v>24.478999999999999</v>
+        <v>21.38</v>
       </c>
       <c r="D6" s="1">
-        <v>0.39700000000000002</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>58051.101986000001</v>
+        <v>58051.051323</v>
       </c>
       <c r="C7" s="1">
-        <v>24.009</v>
+        <v>21.318999999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>0.28899999999999998</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>58051.102786000003</v>
+        <v>58051.055332000004</v>
       </c>
       <c r="C8" s="1">
-        <v>24.003</v>
+        <v>21.481000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>0.27700000000000002</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>58051.103576000001</v>
+        <v>58051.056232000003</v>
       </c>
       <c r="C9" s="1">
-        <v>24.170999999999999</v>
+        <v>21.492999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>0.3</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>58051.104366</v>
+        <v>58051.057072000003</v>
       </c>
       <c r="C10" s="1">
-        <v>23.667000000000002</v>
+        <v>21.611000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>0.20499999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>58052.052515000003</v>
+        <v>58051.057891999997</v>
       </c>
       <c r="C11" s="1">
-        <v>22.367000000000001</v>
+        <v>21.587</v>
       </c>
       <c r="D11" s="1">
-        <v>0.22900000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>58052.053273999998</v>
+        <v>58051.058771999997</v>
       </c>
       <c r="C12" s="1">
-        <v>22.045999999999999</v>
+        <v>21.684999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>0.17899999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>58052.054064000004</v>
+        <v>58051.059611999997</v>
       </c>
       <c r="C13" s="1">
-        <v>22.797999999999998</v>
+        <v>21.641999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>0.42099999999999999</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>58052.056043999997</v>
+        <v>58051.060462000001</v>
       </c>
       <c r="C14" s="1">
-        <v>22.678999999999998</v>
+        <v>21.802</v>
       </c>
       <c r="D14" s="1">
-        <v>0.106</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>58052.056814000003</v>
+        <v>58051.061720999998</v>
       </c>
       <c r="C15" s="1">
-        <v>22.673999999999999</v>
+        <v>21.202999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>0.106</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>58052.057584000002</v>
+        <v>58051.062600999998</v>
       </c>
       <c r="C16" s="1">
-        <v>22.78</v>
+        <v>21.344000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>0.11899999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>58052.058354000001</v>
+        <v>58051.063621000001</v>
       </c>
       <c r="C17" s="1">
-        <v>22.728999999999999</v>
+        <v>21.622</v>
       </c>
       <c r="D17" s="1">
-        <v>0.121</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>58052.059123999999</v>
+        <v>58051.064441000002</v>
       </c>
       <c r="C18" s="1">
-        <v>22.635999999999999</v>
+        <v>21.603000000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>0.107</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>58052.059893999998</v>
+        <v>58051.065310999998</v>
       </c>
       <c r="C19" s="1">
-        <v>22.771999999999998</v>
+        <v>21.541</v>
       </c>
       <c r="D19" s="1">
-        <v>0.111</v>
+        <v>0.13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>58052.060662999997</v>
+        <v>58051.066150999999</v>
       </c>
       <c r="C20" s="1">
-        <v>22.602</v>
+        <v>21.783999999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>58052.134503000001</v>
+        <v>58051.067131000003</v>
       </c>
       <c r="C21" s="1">
-        <v>23.62</v>
+        <v>21.547000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>58052.136342999998</v>
+        <v>58051.068001</v>
       </c>
       <c r="C22" s="1">
-        <v>23.332000000000001</v>
+        <v>21.478999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>0.184</v>
+        <v>0.122</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>58052.181137</v>
+        <v>58051.068890000002</v>
       </c>
       <c r="C23" s="1">
-        <v>23.516999999999999</v>
+        <v>21.777999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.192</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>58052.181877000003</v>
+        <v>58051.069710000003</v>
       </c>
       <c r="C24" s="1">
-        <v>23.391999999999999</v>
+        <v>21.777999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>0.17199999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>58052.182676999997</v>
+        <v>58051.070630000002</v>
       </c>
       <c r="C25" s="1">
-        <v>23.356000000000002</v>
+        <v>21.719000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>58052.183916000002</v>
+        <v>58051.071430000004</v>
       </c>
       <c r="C26" s="1">
-        <v>23.181999999999999</v>
+        <v>21.588000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>0.152</v>
+        <v>0.128</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>58052.185065999998</v>
+        <v>58051.072350000002</v>
       </c>
       <c r="C27" s="1">
-        <v>23.373999999999999</v>
+        <v>21.655999999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>0.17699999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
-        <v>58053.085811999998</v>
+        <v>58051.073129999997</v>
       </c>
       <c r="C28" s="1">
-        <v>24.672999999999998</v>
+        <v>21.88</v>
       </c>
       <c r="D28" s="1">
-        <v>0.76700000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
-        <v>58053.089612000003</v>
+        <v>58051.07417</v>
       </c>
       <c r="C29" s="1">
-        <v>25.18</v>
+        <v>22.021999999999998</v>
       </c>
       <c r="D29" s="1">
-        <v>2.355</v>
+        <v>0.183</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>58051.050352999999</v>
+        <v>58051.077699000001</v>
       </c>
       <c r="C30" s="1">
-        <v>21.38</v>
+        <v>22.45</v>
       </c>
       <c r="D30" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>58051.051323</v>
+        <v>58051.084488</v>
       </c>
       <c r="C31" s="1">
-        <v>21.318999999999999</v>
+        <v>22.577999999999999</v>
       </c>
       <c r="D31" s="1">
-        <v>6.3E-2</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>58051.055332000004</v>
+        <v>58051.091036999998</v>
       </c>
       <c r="C32" s="1">
-        <v>21.481000000000002</v>
+        <v>22.957999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>58051.056232000003</v>
+        <v>58051.095087000002</v>
       </c>
       <c r="C33" s="1">
-        <v>21.492999999999999</v>
+        <v>22.934999999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>58051.057072000003</v>
+        <v>58051.098846000001</v>
       </c>
       <c r="C34" s="1">
-        <v>21.611000000000001</v>
+        <v>23.48</v>
       </c>
       <c r="D34" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1">
-        <v>58051.057891999997</v>
+        <v>58051.101155999997</v>
       </c>
       <c r="C35" s="1">
-        <v>21.587</v>
+        <v>24.478999999999999</v>
       </c>
       <c r="D35" s="1">
-        <v>7.2999999999999995E-2</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1">
-        <v>58051.058771999997</v>
+        <v>58051.101986000001</v>
       </c>
       <c r="C36" s="1">
-        <v>21.684999999999999</v>
+        <v>24.009</v>
       </c>
       <c r="D36" s="1">
-        <v>7.6999999999999999E-2</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1">
-        <v>58051.059611999997</v>
+        <v>58051.102786000003</v>
       </c>
       <c r="C37" s="1">
-        <v>21.641999999999999</v>
+        <v>24.003</v>
       </c>
       <c r="D37" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1">
-        <v>58051.060462000001</v>
+        <v>58051.103576000001</v>
       </c>
       <c r="C38" s="1">
-        <v>21.802</v>
+        <v>24.170999999999999</v>
       </c>
       <c r="D38" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1">
-        <v>58051.106914999997</v>
+        <v>58051.104366</v>
       </c>
       <c r="C39" s="1">
-        <v>23.323</v>
+        <v>23.667000000000002</v>
       </c>
       <c r="D39" s="1">
-        <v>0.23599999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1103,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>58051.107725000002</v>
+        <v>58051.106914999997</v>
       </c>
       <c r="C40" s="1">
-        <v>23.600999999999999</v>
+        <v>23.323</v>
       </c>
       <c r="D40" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>58051.108515</v>
+        <v>58051.107725000002</v>
       </c>
       <c r="C41" s="1">
-        <v>23.486000000000001</v>
+        <v>23.600999999999999</v>
       </c>
       <c r="D41" s="1">
-        <v>0.27100000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>1</v>
@@ -1137,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="1">
-        <v>58051.109284999999</v>
+        <v>58051.108515</v>
       </c>
       <c r="C42" s="1">
-        <v>23.727</v>
+        <v>23.486000000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>0.316</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>1</v>
@@ -1154,13 +1154,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="1">
-        <v>58051.110415000003</v>
+        <v>58051.109284999999</v>
       </c>
       <c r="C43" s="1">
-        <v>23.393999999999998</v>
+        <v>23.727</v>
       </c>
       <c r="D43" s="1">
-        <v>0.253</v>
+        <v>0.316</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>1</v>
@@ -1171,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="1">
-        <v>58051.111194999998</v>
+        <v>58051.110415000003</v>
       </c>
       <c r="C44" s="1">
-        <v>22.986000000000001</v>
+        <v>23.393999999999998</v>
       </c>
       <c r="D44" s="1">
-        <v>0.186</v>
+        <v>0.253</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>1</v>
@@ -1188,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="1">
-        <v>58051.112244000004</v>
+        <v>58051.111194999998</v>
       </c>
       <c r="C45" s="1">
-        <v>23.2</v>
+        <v>22.986000000000001</v>
       </c>
       <c r="D45" s="1">
-        <v>0.214</v>
+        <v>0.186</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>1</v>
@@ -1205,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="1">
-        <v>58052.045376000002</v>
+        <v>58051.112244000004</v>
       </c>
       <c r="C46" s="1">
-        <v>21.234000000000002</v>
+        <v>23.2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.08</v>
+        <v>0.214</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>1</v>
@@ -1219,546 +1219,546 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>58052.046145</v>
+        <v>58051.113374</v>
       </c>
       <c r="C47" s="1">
-        <v>21.244</v>
+        <v>22.751999999999999</v>
       </c>
       <c r="D47" s="1">
-        <v>7.6999999999999999E-2</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
-        <v>58052.046934999998</v>
+        <v>58051.114163999999</v>
       </c>
       <c r="C48" s="1">
-        <v>21.283999999999999</v>
+        <v>22.881</v>
       </c>
       <c r="D48" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
-        <v>58052.047735</v>
+        <v>58051.116104000001</v>
       </c>
       <c r="C49" s="1">
-        <v>21.245999999999999</v>
+        <v>22.574000000000002</v>
       </c>
       <c r="D49" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
-        <v>58052.048504999999</v>
+        <v>58051.116933999998</v>
       </c>
       <c r="C50" s="1">
-        <v>21.187000000000001</v>
+        <v>22.451000000000001</v>
       </c>
       <c r="D50" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>58052.049314999997</v>
+        <v>58051.117753999999</v>
       </c>
       <c r="C51" s="1">
-        <v>21.707999999999998</v>
+        <v>23.193999999999999</v>
       </c>
       <c r="D51" s="1">
-        <v>0.185</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1">
-        <v>58052.050125000002</v>
+        <v>58051.977664999999</v>
       </c>
       <c r="C52" s="1">
-        <v>21.361999999999998</v>
+        <v>23.53</v>
       </c>
       <c r="D52" s="1">
-        <v>0.109</v>
+        <v>0.12</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1">
-        <v>58052.050895</v>
+        <v>58051.979764999996</v>
       </c>
       <c r="C53" s="1">
-        <v>21.367000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="D53" s="1">
-        <v>0.128</v>
+        <v>0.12</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1">
-        <v>58052.051675000002</v>
+        <v>58051.981163999997</v>
       </c>
       <c r="C54" s="1">
-        <v>21.013000000000002</v>
+        <v>23.25</v>
       </c>
       <c r="D54" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
-        <v>58052.061493000001</v>
+        <v>58051.992263</v>
       </c>
       <c r="C55" s="1">
-        <v>21.791</v>
+        <v>23.08</v>
       </c>
       <c r="D55" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1">
-        <v>58052.062293000003</v>
+        <v>58051.993563000004</v>
       </c>
       <c r="C56" s="1">
-        <v>21.849</v>
+        <v>22.86</v>
       </c>
       <c r="D56" s="1">
-        <v>6.2E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1">
-        <v>58052.063063000001</v>
+        <v>58051.994961999997</v>
       </c>
       <c r="C57" s="1">
-        <v>21.937000000000001</v>
+        <v>22.95</v>
       </c>
       <c r="D57" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>58052.063843000004</v>
+        <v>58051.997062000002</v>
       </c>
       <c r="C58" s="1">
-        <v>21.997</v>
+        <v>22.07</v>
       </c>
       <c r="D58" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>58052.064613000002</v>
+        <v>58051.999162</v>
       </c>
       <c r="C59" s="1">
-        <v>22.027999999999999</v>
+        <v>21.75</v>
       </c>
       <c r="D59" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
-        <v>58052.065793000002</v>
+        <v>58052.000562000001</v>
       </c>
       <c r="C60" s="1">
-        <v>21.623000000000001</v>
+        <v>22.18</v>
       </c>
       <c r="D60" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1">
-        <v>58052.067371999998</v>
+        <v>58052.002660999999</v>
       </c>
       <c r="C61" s="1">
-        <v>21.925999999999998</v>
+        <v>21.54</v>
       </c>
       <c r="D61" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1">
-        <v>58052.077240999999</v>
+        <v>58052.004061</v>
       </c>
       <c r="C62" s="1">
-        <v>21.9</v>
+        <v>21.38</v>
       </c>
       <c r="D62" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1">
-        <v>58052.078041000001</v>
+        <v>58052.006160999998</v>
       </c>
       <c r="C63" s="1">
-        <v>21.893000000000001</v>
+        <v>21.58</v>
       </c>
       <c r="D63" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B64" s="1">
-        <v>58052.078841000002</v>
+        <v>58052.007461000001</v>
       </c>
       <c r="C64" s="1">
-        <v>22.048999999999999</v>
+        <v>21.34</v>
       </c>
       <c r="D64" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1">
-        <v>58052.079611000001</v>
+        <v>58052.009559999999</v>
       </c>
       <c r="C65" s="1">
-        <v>21.863</v>
+        <v>21.42</v>
       </c>
       <c r="D65" s="1">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1">
-        <v>58052.080381</v>
+        <v>58052.01096</v>
       </c>
       <c r="C66" s="1">
-        <v>21.971</v>
+        <v>21.21</v>
       </c>
       <c r="D66" s="1">
-        <v>6.2E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1">
-        <v>58052.081170999998</v>
+        <v>58052.013059999997</v>
       </c>
       <c r="C67" s="1">
-        <v>21.861999999999998</v>
+        <v>21.39</v>
       </c>
       <c r="D67" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1">
-        <v>58052.081939999996</v>
+        <v>58052.014459999999</v>
       </c>
       <c r="C68" s="1">
-        <v>21.794</v>
+        <v>21.24</v>
       </c>
       <c r="D68" s="1">
-        <v>5.5E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>58052.082710000002</v>
+        <v>58052.016559999996</v>
       </c>
       <c r="C69" s="1">
-        <v>21.870999999999999</v>
+        <v>21.17</v>
       </c>
       <c r="D69" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B70" s="1">
-        <v>58052.138593000003</v>
+        <v>58052.017958999997</v>
       </c>
       <c r="C70" s="1">
-        <v>22.440999999999999</v>
+        <v>21.22</v>
       </c>
       <c r="D70" s="1">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1">
-        <v>58052.139323000003</v>
+        <v>58052.022758999999</v>
       </c>
       <c r="C71" s="1">
-        <v>22.542999999999999</v>
+        <v>21.18</v>
       </c>
       <c r="D71" s="1">
-        <v>0.13700000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B72" s="1">
-        <v>58052.140061999999</v>
+        <v>58052.024857999997</v>
       </c>
       <c r="C72" s="1">
-        <v>22.65</v>
+        <v>21.17</v>
       </c>
       <c r="D72" s="1">
-        <v>0.14899999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
-        <v>58052.140791999998</v>
+        <v>58052.026257999998</v>
       </c>
       <c r="C73" s="1">
-        <v>22.873999999999999</v>
+        <v>21.75</v>
       </c>
       <c r="D73" s="1">
-        <v>0.17299999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
-        <v>58052.142472</v>
+        <v>58052.028358000003</v>
       </c>
       <c r="C74" s="1">
-        <v>22.998999999999999</v>
+        <v>21.69</v>
       </c>
       <c r="D74" s="1">
-        <v>0.19800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
-        <v>58053.078872999999</v>
+        <v>58052.029757999997</v>
       </c>
       <c r="C75" s="1">
-        <v>23.614999999999998</v>
+        <v>21.68</v>
       </c>
       <c r="D75" s="1">
-        <v>0.29099999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
-        <v>58053.082442999999</v>
+        <v>58052.032457000001</v>
       </c>
       <c r="C76" s="1">
-        <v>23.834</v>
+        <v>22.63</v>
       </c>
       <c r="D76" s="1">
-        <v>0.34399999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
-        <v>58053.093830999998</v>
+        <v>58052.033857000002</v>
       </c>
       <c r="C77" s="1">
-        <v>23.989000000000001</v>
+        <v>22.46</v>
       </c>
       <c r="D77" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
-        <v>58053.097381</v>
+        <v>58052.035257000003</v>
       </c>
       <c r="C78" s="1">
-        <v>23.651</v>
+        <v>22.71</v>
       </c>
       <c r="D78" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1766,13 +1766,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>58053.110098999998</v>
+        <v>58052.045376000002</v>
       </c>
       <c r="C79" s="1">
-        <v>23.068000000000001</v>
+        <v>21.234000000000002</v>
       </c>
       <c r="D79" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>1</v>
@@ -1783,13 +1783,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>58053.113619000003</v>
+        <v>58052.046145</v>
       </c>
       <c r="C80" s="1">
-        <v>23.323</v>
+        <v>21.244</v>
       </c>
       <c r="D80" s="1">
-        <v>0.16700000000000001</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>1</v>
@@ -1800,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>58053.151942999997</v>
+        <v>58052.046934999998</v>
       </c>
       <c r="C81" s="1">
-        <v>22.039000000000001</v>
+        <v>21.283999999999999</v>
       </c>
       <c r="D81" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>1</v>
@@ -1817,13 +1817,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>58053.155532999997</v>
+        <v>58052.047735</v>
       </c>
       <c r="C82" s="1">
-        <v>21.954000000000001</v>
+        <v>21.245999999999999</v>
       </c>
       <c r="D82" s="1">
-        <v>5.5E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>1</v>
@@ -1834,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>58053.220474000002</v>
+        <v>58052.048504999999</v>
       </c>
       <c r="C83" s="1">
-        <v>23.550999999999998</v>
+        <v>21.187000000000001</v>
       </c>
       <c r="D83" s="1">
-        <v>0.26</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>1</v>
@@ -1851,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>58053.224043000002</v>
+        <v>58052.049314999997</v>
       </c>
       <c r="C84" s="1">
-        <v>23.916</v>
+        <v>21.707999999999998</v>
       </c>
       <c r="D84" s="1">
-        <v>0.34</v>
+        <v>0.185</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>1</v>
@@ -1865,342 +1865,342 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>58051.061720999998</v>
+        <v>58052.050125000002</v>
       </c>
       <c r="C85" s="1">
-        <v>21.202999999999999</v>
+        <v>21.361999999999998</v>
       </c>
       <c r="D85" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.109</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>58051.062600999998</v>
+        <v>58052.050895</v>
       </c>
       <c r="C86" s="1">
-        <v>21.344000000000001</v>
+        <v>21.367000000000001</v>
       </c>
       <c r="D86" s="1">
-        <v>0.108</v>
+        <v>0.128</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>58051.063621000001</v>
+        <v>58052.051675000002</v>
       </c>
       <c r="C87" s="1">
-        <v>21.622</v>
+        <v>21.013000000000002</v>
       </c>
       <c r="D87" s="1">
-        <v>0.13300000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B88" s="1">
-        <v>58051.064441000002</v>
+        <v>58052.052515000003</v>
       </c>
       <c r="C88" s="1">
-        <v>21.603000000000002</v>
+        <v>22.367000000000001</v>
       </c>
       <c r="D88" s="1">
-        <v>0.13300000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B89" s="1">
-        <v>58051.065310999998</v>
+        <v>58052.053273999998</v>
       </c>
       <c r="C89" s="1">
-        <v>21.541</v>
+        <v>22.045999999999999</v>
       </c>
       <c r="D89" s="1">
-        <v>0.13</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B90" s="1">
-        <v>58051.066150999999</v>
+        <v>58052.054064000004</v>
       </c>
       <c r="C90" s="1">
-        <v>21.783999999999999</v>
+        <v>22.797999999999998</v>
       </c>
       <c r="D90" s="1">
-        <v>0.152</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B91" s="1">
-        <v>58051.067131000003</v>
+        <v>58052.056043999997</v>
       </c>
       <c r="C91" s="1">
-        <v>21.547000000000001</v>
+        <v>22.678999999999998</v>
       </c>
       <c r="D91" s="1">
-        <v>0.127</v>
+        <v>0.106</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B92" s="1">
-        <v>58051.068001</v>
+        <v>58052.056814000003</v>
       </c>
       <c r="C92" s="1">
-        <v>21.478999999999999</v>
+        <v>22.673999999999999</v>
       </c>
       <c r="D92" s="1">
-        <v>0.122</v>
+        <v>0.106</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B93" s="1">
-        <v>58051.068890000002</v>
+        <v>58052.057584000002</v>
       </c>
       <c r="C93" s="1">
-        <v>21.777999999999999</v>
+        <v>22.78</v>
       </c>
       <c r="D93" s="1">
-        <v>0.14799999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B94" s="1">
-        <v>58051.069710000003</v>
+        <v>58052.058354000001</v>
       </c>
       <c r="C94" s="1">
-        <v>21.777999999999999</v>
+        <v>22.728999999999999</v>
       </c>
       <c r="D94" s="1">
-        <v>0.152</v>
+        <v>0.121</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B95" s="1">
-        <v>58051.070630000002</v>
+        <v>58052.059123999999</v>
       </c>
       <c r="C95" s="1">
-        <v>21.719000000000001</v>
+        <v>22.635999999999999</v>
       </c>
       <c r="D95" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B96" s="1">
-        <v>58051.071430000004</v>
+        <v>58052.059893999998</v>
       </c>
       <c r="C96" s="1">
-        <v>21.588000000000001</v>
+        <v>22.771999999999998</v>
       </c>
       <c r="D96" s="1">
-        <v>0.128</v>
+        <v>0.111</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B97" s="1">
-        <v>58051.072350000002</v>
+        <v>58052.060662999997</v>
       </c>
       <c r="C97" s="1">
-        <v>21.655999999999999</v>
+        <v>22.602</v>
       </c>
       <c r="D97" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
-        <v>58051.073129999997</v>
+        <v>58052.061493000001</v>
       </c>
       <c r="C98" s="1">
-        <v>21.88</v>
+        <v>21.791</v>
       </c>
       <c r="D98" s="1">
-        <v>0.16300000000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
-        <v>58051.07417</v>
+        <v>58052.062293000003</v>
       </c>
       <c r="C99" s="1">
-        <v>22.021999999999998</v>
+        <v>21.849</v>
       </c>
       <c r="D99" s="1">
-        <v>0.183</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1">
-        <v>58051.113374</v>
+        <v>58052.063063000001</v>
       </c>
       <c r="C100" s="1">
-        <v>22.751999999999999</v>
+        <v>21.937000000000001</v>
       </c>
       <c r="D100" s="1">
-        <v>0.29799999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>58051.114163999999</v>
+        <v>58052.063843000004</v>
       </c>
       <c r="C101" s="1">
-        <v>22.881</v>
+        <v>21.997</v>
       </c>
       <c r="D101" s="1">
-        <v>0.33200000000000002</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>58051.116104000001</v>
+        <v>58052.064613000002</v>
       </c>
       <c r="C102" s="1">
-        <v>22.574000000000002</v>
+        <v>22.027999999999999</v>
       </c>
       <c r="D102" s="1">
-        <v>0.26100000000000001</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
-        <v>58051.116933999998</v>
+        <v>58052.065793000002</v>
       </c>
       <c r="C103" s="1">
-        <v>22.451000000000001</v>
+        <v>21.623000000000001</v>
       </c>
       <c r="D103" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
-        <v>58051.117753999999</v>
+        <v>58052.067371999998</v>
       </c>
       <c r="C104" s="1">
-        <v>23.193999999999999</v>
+        <v>21.925999999999998</v>
       </c>
       <c r="D104" s="1">
-        <v>0.44400000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2375,138 +2375,138 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="1">
-        <v>58052.147631</v>
+        <v>58052.077240999999</v>
       </c>
       <c r="C115" s="1">
-        <v>22.390999999999998</v>
+        <v>21.9</v>
       </c>
       <c r="D115" s="1">
-        <v>0.28599999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="1">
-        <v>58052.149950999999</v>
+        <v>58052.078041000001</v>
       </c>
       <c r="C116" s="1">
-        <v>22.452000000000002</v>
+        <v>21.893000000000001</v>
       </c>
       <c r="D116" s="1">
-        <v>0.28199999999999997</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="1">
-        <v>58052.152330999998</v>
+        <v>58052.078841000002</v>
       </c>
       <c r="C117" s="1">
-        <v>22.561</v>
+        <v>22.048999999999999</v>
       </c>
       <c r="D117" s="1">
-        <v>0.315</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="1">
-        <v>58052.154829999999</v>
+        <v>58052.079611000001</v>
       </c>
       <c r="C118" s="1">
-        <v>23.175999999999998</v>
+        <v>21.863</v>
       </c>
       <c r="D118" s="1">
-        <v>0.58299999999999996</v>
+        <v>0.06</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1">
-        <v>58052.157140000003</v>
+        <v>58052.080381</v>
       </c>
       <c r="C119" s="1">
-        <v>23.199000000000002</v>
+        <v>21.971</v>
       </c>
       <c r="D119" s="1">
-        <v>0.60299999999999998</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1">
-        <v>58053.100980000003</v>
+        <v>58052.081170999998</v>
       </c>
       <c r="C120" s="1">
-        <v>23.484999999999999</v>
+        <v>21.861999999999998</v>
       </c>
       <c r="D120" s="1">
-        <v>0.24299999999999999</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1">
-        <v>58053.106019999999</v>
+        <v>58052.081939999996</v>
       </c>
       <c r="C121" s="1">
-        <v>23.271999999999998</v>
+        <v>21.794</v>
       </c>
       <c r="D121" s="1">
-        <v>0.23400000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1">
-        <v>58051.077699000001</v>
+        <v>58052.082710000002</v>
       </c>
       <c r="C122" s="1">
-        <v>22.45</v>
+        <v>21.870999999999999</v>
       </c>
       <c r="D122" s="1">
-        <v>0.35899999999999999</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2514,13 +2514,13 @@
         <v>3</v>
       </c>
       <c r="B123" s="1">
-        <v>58051.084488</v>
+        <v>58052.08653</v>
       </c>
       <c r="C123" s="1">
-        <v>22.577999999999999</v>
+        <v>21.273</v>
       </c>
       <c r="D123" s="1">
-        <v>0.44900000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>3</v>
@@ -2531,13 +2531,13 @@
         <v>3</v>
       </c>
       <c r="B124" s="1">
-        <v>58051.091036999998</v>
+        <v>58052.091029000003</v>
       </c>
       <c r="C124" s="1">
-        <v>22.957999999999998</v>
+        <v>21.425999999999998</v>
       </c>
       <c r="D124" s="1">
-        <v>0.55700000000000005</v>
+        <v>0.106</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>3</v>
@@ -2548,13 +2548,13 @@
         <v>3</v>
       </c>
       <c r="B125" s="1">
-        <v>58051.095087000002</v>
+        <v>58052.094948999998</v>
       </c>
       <c r="C125" s="1">
-        <v>22.934999999999999</v>
+        <v>21.724</v>
       </c>
       <c r="D125" s="1">
-        <v>0.53400000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>3</v>
@@ -2565,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="B126" s="1">
-        <v>58051.098846000001</v>
+        <v>58052.099258000002</v>
       </c>
       <c r="C126" s="1">
-        <v>23.48</v>
+        <v>21.603999999999999</v>
       </c>
       <c r="D126" s="1">
-        <v>0.97099999999999997</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>3</v>
@@ -2579,206 +2579,206 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B127" s="1">
-        <v>58052.08653</v>
+        <v>58052.134503000001</v>
       </c>
       <c r="C127" s="1">
-        <v>21.273</v>
+        <v>23.62</v>
       </c>
       <c r="D127" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B128" s="1">
-        <v>58052.091029000003</v>
+        <v>58052.136342999998</v>
       </c>
       <c r="C128" s="1">
-        <v>21.425999999999998</v>
+        <v>23.332000000000001</v>
       </c>
       <c r="D128" s="1">
-        <v>0.106</v>
+        <v>0.184</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1">
-        <v>58052.094948999998</v>
+        <v>58052.138593000003</v>
       </c>
       <c r="C129" s="1">
-        <v>21.724</v>
+        <v>22.440999999999999</v>
       </c>
       <c r="D129" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1">
-        <v>58052.099258000002</v>
+        <v>58052.139323000003</v>
       </c>
       <c r="C130" s="1">
-        <v>21.603999999999999</v>
+        <v>22.542999999999999</v>
       </c>
       <c r="D130" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B131" s="1">
-        <v>58052.162189000002</v>
+        <v>58052.140061999999</v>
       </c>
       <c r="C131" s="1">
-        <v>23.431000000000001</v>
+        <v>22.65</v>
       </c>
       <c r="D131" s="1">
-        <v>1.587</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1">
-        <v>58052.168068999999</v>
+        <v>58052.140791999998</v>
       </c>
       <c r="C132" s="1">
-        <v>23.106999999999999</v>
+        <v>22.873999999999999</v>
       </c>
       <c r="D132" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1">
-        <v>58052.172938000003</v>
+        <v>58052.142472</v>
       </c>
       <c r="C133" s="1">
-        <v>22.169</v>
+        <v>22.998999999999999</v>
       </c>
       <c r="D133" s="1">
-        <v>0.316</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1">
-        <v>58052.177136999999</v>
+        <v>58052.147631</v>
       </c>
       <c r="C134" s="1">
-        <v>22.518999999999998</v>
+        <v>22.390999999999998</v>
       </c>
       <c r="D134" s="1">
-        <v>0.45100000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1">
-        <v>58052.179176999998</v>
+        <v>58052.149950999999</v>
       </c>
       <c r="C135" s="1">
-        <v>22.248999999999999</v>
+        <v>22.452000000000002</v>
       </c>
       <c r="D135" s="1">
-        <v>0.33400000000000002</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B136" s="1">
-        <v>58053.117228000003</v>
+        <v>58052.152330999998</v>
       </c>
       <c r="C136" s="1">
-        <v>22.515999999999998</v>
+        <v>22.561</v>
       </c>
       <c r="D136" s="1">
-        <v>0.22</v>
+        <v>0.315</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" s="1">
-        <v>58053.121166999998</v>
+        <v>58052.154829999999</v>
       </c>
       <c r="C137" s="1">
-        <v>21.812999999999999</v>
+        <v>23.175999999999998</v>
       </c>
       <c r="D137" s="1">
-        <v>0.16700000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" s="1">
-        <v>58053.125096999996</v>
+        <v>58052.157140000003</v>
       </c>
       <c r="C138" s="1">
-        <v>22.064</v>
+        <v>23.199000000000002</v>
       </c>
       <c r="D138" s="1">
-        <v>0.17100000000000001</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2786,13 +2786,13 @@
         <v>3</v>
       </c>
       <c r="B139" s="1">
-        <v>58053.129055999998</v>
+        <v>58052.162189000002</v>
       </c>
       <c r="C139" s="1">
-        <v>21.742000000000001</v>
+        <v>23.431000000000001</v>
       </c>
       <c r="D139" s="1">
-        <v>0.115</v>
+        <v>1.587</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>3</v>
@@ -2803,13 +2803,13 @@
         <v>3</v>
       </c>
       <c r="B140" s="1">
-        <v>58053.133005999996</v>
+        <v>58052.168068999999</v>
       </c>
       <c r="C140" s="1">
-        <v>21.593</v>
+        <v>23.106999999999999</v>
       </c>
       <c r="D140" s="1">
-        <v>0.13</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>3</v>
@@ -2820,13 +2820,13 @@
         <v>3</v>
       </c>
       <c r="B141" s="1">
-        <v>58053.136935000002</v>
+        <v>58052.172938000003</v>
       </c>
       <c r="C141" s="1">
-        <v>21.544</v>
+        <v>22.169</v>
       </c>
       <c r="D141" s="1">
-        <v>0.104</v>
+        <v>0.316</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>3</v>
@@ -2837,13 +2837,13 @@
         <v>3</v>
       </c>
       <c r="B142" s="1">
-        <v>58053.140845000002</v>
+        <v>58052.177136999999</v>
       </c>
       <c r="C142" s="1">
-        <v>21.701000000000001</v>
+        <v>22.518999999999998</v>
       </c>
       <c r="D142" s="1">
-        <v>0.122</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>3</v>
@@ -2854,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="B143" s="1">
-        <v>58053.144763999997</v>
+        <v>58052.179176999998</v>
       </c>
       <c r="C143" s="1">
-        <v>21.423999999999999</v>
+        <v>22.248999999999999</v>
       </c>
       <c r="D143" s="1">
-        <v>0.11899999999999999</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>3</v>
@@ -2868,478 +2868,478 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B144" s="1">
-        <v>58053.148284000003</v>
+        <v>58052.181137</v>
       </c>
       <c r="C144" s="1">
-        <v>21.677</v>
+        <v>23.516999999999999</v>
       </c>
       <c r="D144" s="1">
-        <v>0.152</v>
+        <v>0.192</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B145" s="1">
-        <v>58053.235522000003</v>
+        <v>58052.181877000003</v>
       </c>
       <c r="C145" s="1">
-        <v>24.739000000000001</v>
+        <v>23.391999999999999</v>
       </c>
       <c r="D145" s="1">
-        <v>0.59</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B146" s="1">
-        <v>58053.236812000003</v>
+        <v>58052.182676999997</v>
       </c>
       <c r="C146" s="1">
-        <v>24.23</v>
+        <v>23.356000000000002</v>
       </c>
       <c r="D146" s="1">
-        <v>0.36899999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B147" s="1">
-        <v>58053.238101000003</v>
+        <v>58052.183916000002</v>
       </c>
       <c r="C147" s="1">
-        <v>25.023</v>
+        <v>23.181999999999999</v>
       </c>
       <c r="D147" s="1">
-        <v>0.75800000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B148" s="1">
-        <v>58053.239391000003</v>
+        <v>58052.185065999998</v>
       </c>
       <c r="C148" s="1">
-        <v>23.678999999999998</v>
+        <v>23.373999999999999</v>
       </c>
       <c r="D148" s="1">
-        <v>0.221</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1">
-        <v>58053.240681000003</v>
+        <v>58053.078872999999</v>
       </c>
       <c r="C149" s="1">
-        <v>23.834</v>
+        <v>23.614999999999998</v>
       </c>
       <c r="D149" s="1">
-        <v>0.253</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B150" s="1">
-        <v>58053.241971000003</v>
+        <v>58053.082442999999</v>
       </c>
       <c r="C150" s="1">
-        <v>23.678000000000001</v>
+        <v>23.834</v>
       </c>
       <c r="D150" s="1">
-        <v>0.22</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B151" s="1">
-        <v>58053.243270999999</v>
+        <v>58053.085811999998</v>
       </c>
       <c r="C151" s="1">
-        <v>24.561</v>
+        <v>24.672999999999998</v>
       </c>
       <c r="D151" s="1">
-        <v>0.49299999999999999</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B152" s="1">
-        <v>58053.244561</v>
+        <v>58053.089612000003</v>
       </c>
       <c r="C152" s="1">
-        <v>23.640999999999998</v>
+        <v>25.18</v>
       </c>
       <c r="D152" s="1">
-        <v>0.21</v>
+        <v>2.355</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B153" s="1">
-        <v>58053.245849999999</v>
+        <v>58053.093830999998</v>
       </c>
       <c r="C153" s="1">
-        <v>23.465</v>
+        <v>23.989000000000001</v>
       </c>
       <c r="D153" s="1">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1">
-        <v>58053.247139999999</v>
+        <v>58053.097381</v>
       </c>
       <c r="C154" s="1">
-        <v>23.867000000000001</v>
+        <v>23.651</v>
       </c>
       <c r="D154" s="1">
-        <v>0.25600000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B155" s="1">
-        <v>58053.24843</v>
+        <v>58053.100980000003</v>
       </c>
       <c r="C155" s="1">
-        <v>23.97</v>
+        <v>23.484999999999999</v>
       </c>
       <c r="D155" s="1">
-        <v>0.28399999999999997</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B156" s="1">
-        <v>58053.24972</v>
+        <v>58053.106019999999</v>
       </c>
       <c r="C156" s="1">
-        <v>23.821000000000002</v>
+        <v>23.271999999999998</v>
       </c>
       <c r="D156" s="1">
-        <v>0.249</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1">
-        <v>58053.25101</v>
+        <v>58053.110098999998</v>
       </c>
       <c r="C157" s="1">
-        <v>23.754000000000001</v>
+        <v>23.068000000000001</v>
       </c>
       <c r="D157" s="1">
-        <v>0.23699999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1">
-        <v>58053.252299</v>
+        <v>58053.113619000003</v>
       </c>
       <c r="C158" s="1">
-        <v>23.713999999999999</v>
+        <v>23.323</v>
       </c>
       <c r="D158" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B159" s="1">
-        <v>58053.253589</v>
+        <v>58053.117228000003</v>
       </c>
       <c r="C159" s="1">
-        <v>23.198</v>
+        <v>22.515999999999998</v>
       </c>
       <c r="D159" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1">
-        <v>58053.254879</v>
+        <v>58053.121166999998</v>
       </c>
       <c r="C160" s="1">
-        <v>23.542999999999999</v>
+        <v>21.812999999999999</v>
       </c>
       <c r="D160" s="1">
-        <v>0.19400000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B161" s="1">
-        <v>58053.256169</v>
+        <v>58053.125096999996</v>
       </c>
       <c r="C161" s="1">
-        <v>23.454999999999998</v>
+        <v>22.064</v>
       </c>
       <c r="D161" s="1">
-        <v>0.18</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B162" s="1">
-        <v>58053.257459</v>
+        <v>58053.129055999998</v>
       </c>
       <c r="C162" s="1">
-        <v>23.422999999999998</v>
+        <v>21.742000000000001</v>
       </c>
       <c r="D162" s="1">
-        <v>0.16800000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B163" s="1">
-        <v>58053.258749000001</v>
+        <v>58053.133005999996</v>
       </c>
       <c r="C163" s="1">
-        <v>22.956</v>
+        <v>21.593</v>
       </c>
       <c r="D163" s="1">
-        <v>0.111</v>
+        <v>0.13</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B164" s="1">
-        <v>58053.260038</v>
+        <v>58053.136935000002</v>
       </c>
       <c r="C164" s="1">
-        <v>23.163</v>
+        <v>21.544</v>
       </c>
       <c r="D164" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1">
-        <v>58053.261478</v>
+        <v>58053.140845000002</v>
       </c>
       <c r="C165" s="1">
-        <v>22.966000000000001</v>
+        <v>21.701000000000001</v>
       </c>
       <c r="D165" s="1">
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B166" s="1">
-        <v>58053.268987000003</v>
+        <v>58053.144763999997</v>
       </c>
       <c r="C166" s="1">
-        <v>23.262</v>
+        <v>21.423999999999999</v>
       </c>
       <c r="D166" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B167" s="1">
-        <v>58053.270917000002</v>
+        <v>58053.148284000003</v>
       </c>
       <c r="C167" s="1">
-        <v>23.047000000000001</v>
+        <v>21.677</v>
       </c>
       <c r="D167" s="1">
-        <v>0.122</v>
+        <v>0.152</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1">
-        <v>58053.272207000002</v>
+        <v>58053.151942999997</v>
       </c>
       <c r="C168" s="1">
-        <v>22.832999999999998</v>
+        <v>22.039000000000001</v>
       </c>
       <c r="D168" s="1">
-        <v>0.10100000000000001</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1">
-        <v>58053.273497000002</v>
+        <v>58053.155532999997</v>
       </c>
       <c r="C169" s="1">
-        <v>22.838000000000001</v>
+        <v>21.954000000000001</v>
       </c>
       <c r="D169" s="1">
-        <v>0.1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B170" s="1">
-        <v>58053.274786000002</v>
+        <v>58053.220474000002</v>
       </c>
       <c r="C170" s="1">
-        <v>22.733000000000001</v>
+        <v>23.550999999999998</v>
       </c>
       <c r="D170" s="1">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B171" s="1">
-        <v>58053.276076000002</v>
+        <v>58053.224043000002</v>
       </c>
       <c r="C171" s="1">
-        <v>22.623000000000001</v>
+        <v>23.916</v>
       </c>
       <c r="D171" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.34</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3347,13 +3347,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="1">
-        <v>58053.277366000002</v>
+        <v>58053.235522000003</v>
       </c>
       <c r="C172" s="1">
-        <v>22.491</v>
+        <v>24.739000000000001</v>
       </c>
       <c r="D172" s="1">
-        <v>7.2999999999999995E-2</v>
+        <v>0.59</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>4</v>
@@ -3364,13 +3364,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="1">
-        <v>58053.278656000002</v>
+        <v>58053.236812000003</v>
       </c>
       <c r="C173" s="1">
-        <v>22.513999999999999</v>
+        <v>24.23</v>
       </c>
       <c r="D173" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>4</v>
@@ -3381,13 +3381,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="1">
-        <v>58053.279955999998</v>
+        <v>58053.238101000003</v>
       </c>
       <c r="C174" s="1">
-        <v>22.54</v>
+        <v>25.023</v>
       </c>
       <c r="D174" s="1">
-        <v>7.6999999999999999E-2</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>4</v>
@@ -3398,13 +3398,13 @@
         <v>4</v>
       </c>
       <c r="B175" s="1">
-        <v>58053.281244999998</v>
+        <v>58053.239391000003</v>
       </c>
       <c r="C175" s="1">
-        <v>22.338000000000001</v>
+        <v>23.678999999999998</v>
       </c>
       <c r="D175" s="1">
-        <v>6.3E-2</v>
+        <v>0.221</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>4</v>
@@ -3415,13 +3415,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="1">
-        <v>58053.282534999998</v>
+        <v>58053.240681000003</v>
       </c>
       <c r="C176" s="1">
-        <v>22.369</v>
+        <v>23.834</v>
       </c>
       <c r="D176" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>0.253</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>4</v>
@@ -3432,13 +3432,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="1">
-        <v>58053.283824999999</v>
+        <v>58053.241971000003</v>
       </c>
       <c r="C177" s="1">
-        <v>22.245000000000001</v>
+        <v>23.678000000000001</v>
       </c>
       <c r="D177" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>0.22</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>4</v>
@@ -3449,13 +3449,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="1">
-        <v>58053.285114999999</v>
+        <v>58053.243270999999</v>
       </c>
       <c r="C178" s="1">
-        <v>22.257999999999999</v>
+        <v>24.561</v>
       </c>
       <c r="D178" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>4</v>
@@ -3466,13 +3466,13 @@
         <v>4</v>
       </c>
       <c r="B179" s="1">
-        <v>58053.286404999999</v>
+        <v>58053.244561</v>
       </c>
       <c r="C179" s="1">
-        <v>22.222000000000001</v>
+        <v>23.640999999999998</v>
       </c>
       <c r="D179" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>0.21</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>4</v>
@@ -3483,13 +3483,13 @@
         <v>4</v>
       </c>
       <c r="B180" s="1">
-        <v>58053.288824000003</v>
+        <v>58053.245849999999</v>
       </c>
       <c r="C180" s="1">
-        <v>22.059000000000001</v>
+        <v>23.465</v>
       </c>
       <c r="D180" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>4</v>
@@ -3500,13 +3500,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="1">
-        <v>58053.291394</v>
+        <v>58053.247139999999</v>
       </c>
       <c r="C181" s="1">
-        <v>22.126000000000001</v>
+        <v>23.867000000000001</v>
       </c>
       <c r="D181" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>4</v>
@@ -3517,13 +3517,13 @@
         <v>4</v>
       </c>
       <c r="B182" s="1">
-        <v>58053.293954000001</v>
+        <v>58053.24843</v>
       </c>
       <c r="C182" s="1">
-        <v>22.154</v>
+        <v>23.97</v>
       </c>
       <c r="D182" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>4</v>
@@ -3534,13 +3534,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="1">
-        <v>58053.296522999997</v>
+        <v>58053.24972</v>
       </c>
       <c r="C183" s="1">
-        <v>22.093</v>
+        <v>23.821000000000002</v>
       </c>
       <c r="D183" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>0.249</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>4</v>
@@ -3551,13 +3551,13 @@
         <v>4</v>
       </c>
       <c r="B184" s="1">
-        <v>58053.299082999998</v>
+        <v>58053.25101</v>
       </c>
       <c r="C184" s="1">
-        <v>22.1</v>
+        <v>23.754000000000001</v>
       </c>
       <c r="D184" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>4</v>
@@ -3568,13 +3568,13 @@
         <v>4</v>
       </c>
       <c r="B185" s="1">
-        <v>58053.301642999999</v>
+        <v>58053.252299</v>
       </c>
       <c r="C185" s="1">
-        <v>22.125</v>
+        <v>23.713999999999999</v>
       </c>
       <c r="D185" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>4</v>
@@ -3585,13 +3585,13 @@
         <v>4</v>
       </c>
       <c r="B186" s="1">
-        <v>58053.304212000003</v>
+        <v>58053.253589</v>
       </c>
       <c r="C186" s="1">
-        <v>22.071000000000002</v>
+        <v>23.198</v>
       </c>
       <c r="D186" s="1">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>4</v>
@@ -3602,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="B187" s="1">
-        <v>58053.306772000004</v>
+        <v>58053.254879</v>
       </c>
       <c r="C187" s="1">
-        <v>22.1</v>
+        <v>23.542999999999999</v>
       </c>
       <c r="D187" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>4</v>
@@ -3619,13 +3619,13 @@
         <v>4</v>
       </c>
       <c r="B188" s="1">
-        <v>58053.309331999997</v>
+        <v>58053.256169</v>
       </c>
       <c r="C188" s="1">
-        <v>22.145</v>
+        <v>23.454999999999998</v>
       </c>
       <c r="D188" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>4</v>
@@ -3636,13 +3636,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="1">
-        <v>58053.311901000001</v>
+        <v>58053.257459</v>
       </c>
       <c r="C189" s="1">
-        <v>22.140999999999998</v>
+        <v>23.422999999999998</v>
       </c>
       <c r="D189" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>4</v>
@@ -3653,13 +3653,13 @@
         <v>4</v>
       </c>
       <c r="B190" s="1">
-        <v>58053.314461000002</v>
+        <v>58053.258749000001</v>
       </c>
       <c r="C190" s="1">
-        <v>21.995999999999999</v>
+        <v>22.956</v>
       </c>
       <c r="D190" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>0.111</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>4</v>
@@ -3670,13 +3670,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="1">
-        <v>58053.317021000003</v>
+        <v>58053.260038</v>
       </c>
       <c r="C191" s="1">
-        <v>22.09</v>
+        <v>23.163</v>
       </c>
       <c r="D191" s="1">
-        <v>0.03</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>4</v>
@@ -3687,13 +3687,13 @@
         <v>4</v>
       </c>
       <c r="B192" s="1">
-        <v>58053.319589999999</v>
+        <v>58053.261478</v>
       </c>
       <c r="C192" s="1">
-        <v>22.163</v>
+        <v>22.966000000000001</v>
       </c>
       <c r="D192" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.115</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>4</v>
@@ -3704,13 +3704,13 @@
         <v>4</v>
       </c>
       <c r="B193" s="1">
-        <v>58053.32215</v>
+        <v>58053.268987000003</v>
       </c>
       <c r="C193" s="1">
-        <v>22.164000000000001</v>
+        <v>23.262</v>
       </c>
       <c r="D193" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>4</v>
@@ -3721,13 +3721,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="1">
-        <v>58053.324710000001</v>
+        <v>58053.270917000002</v>
       </c>
       <c r="C194" s="1">
-        <v>22.260999999999999</v>
+        <v>23.047000000000001</v>
       </c>
       <c r="D194" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>4</v>
@@ -3738,13 +3738,13 @@
         <v>4</v>
       </c>
       <c r="B195" s="1">
-        <v>58053.327298999997</v>
+        <v>58053.272207000002</v>
       </c>
       <c r="C195" s="1">
-        <v>22.161999999999999</v>
+        <v>22.832999999999998</v>
       </c>
       <c r="D195" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>4</v>
@@ -3755,13 +3755,13 @@
         <v>4</v>
       </c>
       <c r="B196" s="1">
-        <v>58053.329869000001</v>
+        <v>58053.273497000002</v>
       </c>
       <c r="C196" s="1">
-        <v>22.315999999999999</v>
+        <v>22.838000000000001</v>
       </c>
       <c r="D196" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>4</v>
@@ -3772,13 +3772,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="1">
-        <v>58053.332428000002</v>
+        <v>58053.274786000002</v>
       </c>
       <c r="C197" s="1">
-        <v>22.341999999999999</v>
+        <v>22.733000000000001</v>
       </c>
       <c r="D197" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>4</v>
@@ -3789,13 +3789,13 @@
         <v>4</v>
       </c>
       <c r="B198" s="1">
-        <v>58053.334988000002</v>
+        <v>58053.276076000002</v>
       </c>
       <c r="C198" s="1">
-        <v>22.443000000000001</v>
+        <v>22.623000000000001</v>
       </c>
       <c r="D198" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>4</v>
@@ -3806,13 +3806,13 @@
         <v>4</v>
       </c>
       <c r="B199" s="1">
-        <v>58053.337557999999</v>
+        <v>58053.277366000002</v>
       </c>
       <c r="C199" s="1">
-        <v>22.419</v>
+        <v>22.491</v>
       </c>
       <c r="D199" s="1">
-        <v>0.04</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>4</v>
@@ -3823,13 +3823,13 @@
         <v>4</v>
       </c>
       <c r="B200" s="1">
-        <v>58053.340117</v>
+        <v>58053.278656000002</v>
       </c>
       <c r="C200" s="1">
-        <v>22.552</v>
+        <v>22.513999999999999</v>
       </c>
       <c r="D200" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>4</v>
@@ -3840,13 +3840,13 @@
         <v>4</v>
       </c>
       <c r="B201" s="1">
-        <v>58053.342677000001</v>
+        <v>58053.279955999998</v>
       </c>
       <c r="C201" s="1">
-        <v>22.503</v>
+        <v>22.54</v>
       </c>
       <c r="D201" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>4</v>
@@ -3857,13 +3857,13 @@
         <v>4</v>
       </c>
       <c r="B202" s="1">
-        <v>58053.345246999997</v>
+        <v>58053.281244999998</v>
       </c>
       <c r="C202" s="1">
-        <v>22.52</v>
+        <v>22.338000000000001</v>
       </c>
       <c r="D202" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>4</v>
@@ -3874,13 +3874,13 @@
         <v>4</v>
       </c>
       <c r="B203" s="1">
-        <v>58053.347805999998</v>
+        <v>58053.282534999998</v>
       </c>
       <c r="C203" s="1">
-        <v>22.468</v>
+        <v>22.369</v>
       </c>
       <c r="D203" s="1">
-        <v>0.05</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>4</v>
@@ -3891,13 +3891,13 @@
         <v>4</v>
       </c>
       <c r="B204" s="1">
-        <v>58053.350376000002</v>
+        <v>58053.283824999999</v>
       </c>
       <c r="C204" s="1">
-        <v>22.846</v>
+        <v>22.245000000000001</v>
       </c>
       <c r="D204" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>4</v>
@@ -3908,13 +3908,13 @@
         <v>4</v>
       </c>
       <c r="B205" s="1">
-        <v>58053.352936000003</v>
+        <v>58053.285114999999</v>
       </c>
       <c r="C205" s="1">
-        <v>22.844999999999999</v>
+        <v>22.257999999999999</v>
       </c>
       <c r="D205" s="1">
-        <v>0.06</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>4</v>
@@ -3925,13 +3925,13 @@
         <v>4</v>
       </c>
       <c r="B206" s="1">
-        <v>58053.355495000003</v>
+        <v>58053.286404999999</v>
       </c>
       <c r="C206" s="1">
-        <v>22.82</v>
+        <v>22.222000000000001</v>
       </c>
       <c r="D206" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>4</v>
@@ -3942,13 +3942,13 @@
         <v>4</v>
       </c>
       <c r="B207" s="1">
-        <v>58053.358195000001</v>
+        <v>58053.288824000003</v>
       </c>
       <c r="C207" s="1">
-        <v>22.911999999999999</v>
+        <v>22.059000000000001</v>
       </c>
       <c r="D207" s="1">
-        <v>6.3E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>4</v>
@@ -3959,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="1">
-        <v>58053.360755000002</v>
+        <v>58053.291394</v>
       </c>
       <c r="C208" s="1">
-        <v>22.951000000000001</v>
+        <v>22.126000000000001</v>
       </c>
       <c r="D208" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>4</v>
@@ -3976,13 +3976,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="1">
-        <v>58053.363323999998</v>
+        <v>58053.293954000001</v>
       </c>
       <c r="C209" s="1">
-        <v>23.148</v>
+        <v>22.154</v>
       </c>
       <c r="D209" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>4</v>
@@ -3993,13 +3993,13 @@
         <v>4</v>
       </c>
       <c r="B210" s="1">
-        <v>58053.365883999999</v>
+        <v>58053.296522999997</v>
       </c>
       <c r="C210" s="1">
-        <v>23.324000000000002</v>
+        <v>22.093</v>
       </c>
       <c r="D210" s="1">
-        <v>9.2999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>4</v>
@@ -4010,13 +4010,13 @@
         <v>4</v>
       </c>
       <c r="B211" s="1">
-        <v>58053.368652999998</v>
+        <v>58053.299082999998</v>
       </c>
       <c r="C211" s="1">
-        <v>23.616</v>
+        <v>22.1</v>
       </c>
       <c r="D211" s="1">
-        <v>0.11799999999999999</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>4</v>
@@ -4027,13 +4027,13 @@
         <v>4</v>
       </c>
       <c r="B212" s="1">
-        <v>58053.371212999999</v>
+        <v>58053.301642999999</v>
       </c>
       <c r="C212" s="1">
-        <v>23.72</v>
+        <v>22.125</v>
       </c>
       <c r="D212" s="1">
-        <v>0.13300000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>4</v>
@@ -4044,13 +4044,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="1">
-        <v>58053.373783000003</v>
+        <v>58053.304212000003</v>
       </c>
       <c r="C213" s="1">
-        <v>23.800999999999998</v>
+        <v>22.071000000000002</v>
       </c>
       <c r="D213" s="1">
-        <v>0.151</v>
+        <v>0.03</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>4</v>
@@ -4061,13 +4061,13 @@
         <v>4</v>
       </c>
       <c r="B214" s="1">
-        <v>58053.376342000003</v>
+        <v>58053.306772000004</v>
       </c>
       <c r="C214" s="1">
-        <v>23.925999999999998</v>
+        <v>22.1</v>
       </c>
       <c r="D214" s="1">
-        <v>0.16200000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>4</v>
@@ -4078,13 +4078,13 @@
         <v>4</v>
       </c>
       <c r="B215" s="1">
-        <v>58053.378901999997</v>
+        <v>58053.309331999997</v>
       </c>
       <c r="C215" s="1">
-        <v>23.978999999999999</v>
+        <v>22.145</v>
       </c>
       <c r="D215" s="1">
-        <v>0.17399999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>4</v>
@@ -4095,13 +4095,13 @@
         <v>4</v>
       </c>
       <c r="B216" s="1">
-        <v>58053.381472000001</v>
+        <v>58053.311901000001</v>
       </c>
       <c r="C216" s="1">
-        <v>24.706</v>
+        <v>22.140999999999998</v>
       </c>
       <c r="D216" s="1">
-        <v>0.33700000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>4</v>
@@ -4112,13 +4112,13 @@
         <v>4</v>
       </c>
       <c r="B217" s="1">
-        <v>58053.384031000001</v>
+        <v>58053.314461000002</v>
       </c>
       <c r="C217" s="1">
-        <v>24.388999999999999</v>
+        <v>21.995999999999999</v>
       </c>
       <c r="D217" s="1">
-        <v>0.253</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>4</v>
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B218" s="1">
-        <v>58053.386591000002</v>
+        <v>58053.317021000003</v>
       </c>
       <c r="C218" s="1">
-        <v>24.59</v>
+        <v>22.09</v>
       </c>
       <c r="D218" s="1">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>4</v>
@@ -4146,13 +4146,13 @@
         <v>4</v>
       </c>
       <c r="B219" s="1">
-        <v>58053.389171000003</v>
+        <v>58053.319589999999</v>
       </c>
       <c r="C219" s="1">
-        <v>23.556000000000001</v>
+        <v>22.163</v>
       </c>
       <c r="D219" s="1">
-        <v>0.124</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>4</v>
@@ -4163,13 +4163,13 @@
         <v>4</v>
       </c>
       <c r="B220" s="1">
-        <v>58053.396999999997</v>
+        <v>58053.32215</v>
       </c>
       <c r="C220" s="1">
-        <v>23.44</v>
+        <v>22.164000000000001</v>
       </c>
       <c r="D220" s="1">
-        <v>0.10199999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>4</v>
@@ -4180,13 +4180,13 @@
         <v>4</v>
       </c>
       <c r="B221" s="1">
-        <v>58053.399558999998</v>
+        <v>58053.324710000001</v>
       </c>
       <c r="C221" s="1">
-        <v>23.635999999999999</v>
+        <v>22.260999999999999</v>
       </c>
       <c r="D221" s="1">
-        <v>0.127</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>4</v>
@@ -4197,13 +4197,13 @@
         <v>4</v>
       </c>
       <c r="B222" s="1">
-        <v>58053.402129000002</v>
+        <v>58053.327298999997</v>
       </c>
       <c r="C222" s="1">
-        <v>23.706</v>
+        <v>22.161999999999999</v>
       </c>
       <c r="D222" s="1">
-        <v>0.127</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>4</v>
@@ -4214,13 +4214,13 @@
         <v>4</v>
       </c>
       <c r="B223" s="1">
-        <v>58053.404689000003</v>
+        <v>58053.329869000001</v>
       </c>
       <c r="C223" s="1">
-        <v>23.574999999999999</v>
+        <v>22.315999999999999</v>
       </c>
       <c r="D223" s="1">
-        <v>0.106</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>4</v>
@@ -4231,13 +4231,13 @@
         <v>4</v>
       </c>
       <c r="B224" s="1">
-        <v>58053.407248000003</v>
+        <v>58053.332428000002</v>
       </c>
       <c r="C224" s="1">
-        <v>23.436</v>
+        <v>22.341999999999999</v>
       </c>
       <c r="D224" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>4</v>
@@ -4248,13 +4248,13 @@
         <v>4</v>
       </c>
       <c r="B225" s="1">
-        <v>58053.409818</v>
+        <v>58053.334988000002</v>
       </c>
       <c r="C225" s="1">
-        <v>23.338999999999999</v>
+        <v>22.443000000000001</v>
       </c>
       <c r="D225" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>4</v>
@@ -4265,13 +4265,13 @@
         <v>4</v>
       </c>
       <c r="B226" s="1">
-        <v>58053.412377000001</v>
+        <v>58053.337557999999</v>
       </c>
       <c r="C226" s="1">
-        <v>23.209</v>
+        <v>22.419</v>
       </c>
       <c r="D226" s="1">
-        <v>7.5999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>4</v>
@@ -4282,13 +4282,13 @@
         <v>4</v>
       </c>
       <c r="B227" s="1">
-        <v>58053.414937000001</v>
+        <v>58053.340117</v>
       </c>
       <c r="C227" s="1">
-        <v>23.295000000000002</v>
+        <v>22.552</v>
       </c>
       <c r="D227" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>4</v>
@@ -4299,13 +4299,13 @@
         <v>4</v>
       </c>
       <c r="B228" s="1">
-        <v>58053.417627000003</v>
+        <v>58053.342677000001</v>
       </c>
       <c r="C228" s="1">
-        <v>23.032</v>
+        <v>22.503</v>
       </c>
       <c r="D228" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>4</v>
@@ -4316,13 +4316,13 @@
         <v>4</v>
       </c>
       <c r="B229" s="1">
-        <v>58053.420186000003</v>
+        <v>58053.345246999997</v>
       </c>
       <c r="C229" s="1">
-        <v>22.689</v>
+        <v>22.52</v>
       </c>
       <c r="D229" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>4</v>
@@ -4333,13 +4333,13 @@
         <v>4</v>
       </c>
       <c r="B230" s="1">
-        <v>58053.422745999997</v>
+        <v>58053.347805999998</v>
       </c>
       <c r="C230" s="1">
-        <v>22.669</v>
+        <v>22.468</v>
       </c>
       <c r="D230" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>4</v>
@@ -4350,13 +4350,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="1">
-        <v>58053.425346000004</v>
+        <v>58053.350376000002</v>
       </c>
       <c r="C231" s="1">
-        <v>22.442</v>
+        <v>22.846</v>
       </c>
       <c r="D231" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>4</v>
@@ -4367,13 +4367,13 @@
         <v>4</v>
       </c>
       <c r="B232" s="1">
-        <v>58053.427915</v>
+        <v>58053.352936000003</v>
       </c>
       <c r="C232" s="1">
-        <v>22.442</v>
+        <v>22.844999999999999</v>
       </c>
       <c r="D232" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>4</v>
@@ -4384,13 +4384,13 @@
         <v>4</v>
       </c>
       <c r="B233" s="1">
-        <v>58053.430475000001</v>
+        <v>58053.355495000003</v>
       </c>
       <c r="C233" s="1">
-        <v>22.452999999999999</v>
+        <v>22.82</v>
       </c>
       <c r="D233" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>4</v>
@@ -4401,13 +4401,13 @@
         <v>4</v>
       </c>
       <c r="B234" s="1">
-        <v>58053.433044999998</v>
+        <v>58053.358195000001</v>
       </c>
       <c r="C234" s="1">
-        <v>22.512</v>
+        <v>22.911999999999999</v>
       </c>
       <c r="D234" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>4</v>
@@ -4418,13 +4418,13 @@
         <v>4</v>
       </c>
       <c r="B235" s="1">
-        <v>58053.435603999998</v>
+        <v>58053.360755000002</v>
       </c>
       <c r="C235" s="1">
-        <v>22.38</v>
+        <v>22.951000000000001</v>
       </c>
       <c r="D235" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>4</v>
@@ -4435,13 +4435,13 @@
         <v>4</v>
       </c>
       <c r="B236" s="1">
-        <v>58053.438163999999</v>
+        <v>58053.363323999998</v>
       </c>
       <c r="C236" s="1">
-        <v>22.352</v>
+        <v>23.148</v>
       </c>
       <c r="D236" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>4</v>
@@ -4452,13 +4452,13 @@
         <v>4</v>
       </c>
       <c r="B237" s="1">
-        <v>58053.443303</v>
+        <v>58053.365883999999</v>
       </c>
       <c r="C237" s="1">
-        <v>22.108000000000001</v>
+        <v>23.324000000000002</v>
       </c>
       <c r="D237" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>4</v>
@@ -4469,13 +4469,13 @@
         <v>4</v>
       </c>
       <c r="B238" s="1">
-        <v>58053.445863000001</v>
+        <v>58053.368652999998</v>
       </c>
       <c r="C238" s="1">
-        <v>21.975999999999999</v>
+        <v>23.616</v>
       </c>
       <c r="D238" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>4</v>
@@ -4486,13 +4486,13 @@
         <v>4</v>
       </c>
       <c r="B239" s="1">
-        <v>58053.448562999998</v>
+        <v>58053.371212999999</v>
       </c>
       <c r="C239" s="1">
-        <v>21.885999999999999</v>
+        <v>23.72</v>
       </c>
       <c r="D239" s="1">
-        <v>2.4E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>4</v>
@@ -4503,13 +4503,13 @@
         <v>4</v>
       </c>
       <c r="B240" s="1">
-        <v>58053.451172000001</v>
+        <v>58053.373783000003</v>
       </c>
       <c r="C240" s="1">
-        <v>21.794</v>
+        <v>23.800999999999998</v>
       </c>
       <c r="D240" s="1">
-        <v>2.3E-2</v>
+        <v>0.151</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>4</v>
@@ -4520,13 +4520,13 @@
         <v>4</v>
       </c>
       <c r="B241" s="1">
-        <v>58053.453772000001</v>
+        <v>58053.376342000003</v>
       </c>
       <c r="C241" s="1">
-        <v>21.843</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="D241" s="1">
-        <v>2.3E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>4</v>
@@ -4537,13 +4537,13 @@
         <v>4</v>
       </c>
       <c r="B242" s="1">
-        <v>58053.456331000001</v>
+        <v>58053.378901999997</v>
       </c>
       <c r="C242" s="1">
-        <v>21.754999999999999</v>
+        <v>23.978999999999999</v>
       </c>
       <c r="D242" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>4</v>
@@ -4551,461 +4551,461 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B243" s="1">
-        <v>58055.258014999999</v>
+        <v>58053.381472000001</v>
       </c>
       <c r="C243" s="1">
-        <v>22.77</v>
+        <v>24.706</v>
       </c>
       <c r="D243" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B244" s="1">
-        <v>58055.262644000002</v>
+        <v>58053.384031000001</v>
       </c>
       <c r="C244" s="1">
-        <v>22.69</v>
+        <v>24.388999999999999</v>
       </c>
       <c r="D244" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.253</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B245" s="1">
-        <v>58055.322216</v>
+        <v>58053.386591000002</v>
       </c>
       <c r="C245" s="1">
-        <v>22.09</v>
+        <v>24.59</v>
       </c>
       <c r="D245" s="1">
-        <v>1.9E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B246" s="1">
-        <v>58055.268433999998</v>
+        <v>58053.389171000003</v>
       </c>
       <c r="C246" s="1">
-        <v>23.225000000000001</v>
+        <v>23.556000000000001</v>
       </c>
       <c r="D246" s="1">
-        <v>7.2999999999999995E-2</v>
+        <v>0.124</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B247" s="1">
-        <v>58055.272783</v>
+        <v>58053.396999999997</v>
       </c>
       <c r="C247" s="1">
-        <v>23.135000000000002</v>
+        <v>23.44</v>
       </c>
       <c r="D247" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B248" s="1">
-        <v>58055.318217</v>
+        <v>58053.399558999998</v>
       </c>
       <c r="C248" s="1">
-        <v>22.515000000000001</v>
+        <v>23.635999999999999</v>
       </c>
       <c r="D248" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.127</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B249" s="1">
-        <v>58055.827787000002</v>
+        <v>58053.402129000002</v>
       </c>
       <c r="C249" s="1">
-        <v>22.469000000000001</v>
+        <v>23.706</v>
       </c>
       <c r="D249" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.127</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B250" s="1">
-        <v>58055.845793</v>
+        <v>58053.404689000003</v>
       </c>
       <c r="C250" s="1">
-        <v>22.831</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="D250" s="1">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B251" s="1">
-        <v>58055.877675999996</v>
+        <v>58053.407248000003</v>
       </c>
       <c r="C251" s="1">
-        <v>23.401</v>
+        <v>23.436</v>
       </c>
       <c r="D251" s="1">
-        <v>0.17799999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B252" s="1">
-        <v>58052.002660999999</v>
+        <v>58053.409818</v>
       </c>
       <c r="C252" s="1">
-        <v>21.54</v>
+        <v>23.338999999999999</v>
       </c>
       <c r="D252" s="1">
-        <v>0.1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B253" s="1">
-        <v>58052.004061</v>
+        <v>58053.412377000001</v>
       </c>
       <c r="C253" s="1">
-        <v>21.38</v>
+        <v>23.209</v>
       </c>
       <c r="D253" s="1">
-        <v>0.1</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B254" s="1">
-        <v>58052.006160999998</v>
+        <v>58053.414937000001</v>
       </c>
       <c r="C254" s="1">
-        <v>21.58</v>
+        <v>23.295000000000002</v>
       </c>
       <c r="D254" s="1">
-        <v>0.1</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B255" s="1">
-        <v>58052.007461000001</v>
+        <v>58053.417627000003</v>
       </c>
       <c r="C255" s="1">
-        <v>21.34</v>
+        <v>23.032</v>
       </c>
       <c r="D255" s="1">
-        <v>0.1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B256" s="1">
-        <v>58052.009559999999</v>
+        <v>58053.420186000003</v>
       </c>
       <c r="C256" s="1">
-        <v>21.42</v>
+        <v>22.689</v>
       </c>
       <c r="D256" s="1">
-        <v>0.1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B257" s="1">
-        <v>58052.01096</v>
+        <v>58053.422745999997</v>
       </c>
       <c r="C257" s="1">
-        <v>21.21</v>
+        <v>22.669</v>
       </c>
       <c r="D257" s="1">
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B258" s="1">
-        <v>58052.013059999997</v>
+        <v>58053.425346000004</v>
       </c>
       <c r="C258" s="1">
-        <v>21.39</v>
+        <v>22.442</v>
       </c>
       <c r="D258" s="1">
-        <v>0.1</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B259" s="1">
-        <v>58052.014459999999</v>
+        <v>58053.427915</v>
       </c>
       <c r="C259" s="1">
-        <v>21.24</v>
+        <v>22.442</v>
       </c>
       <c r="D259" s="1">
-        <v>0.1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B260" s="1">
-        <v>58052.016559999996</v>
+        <v>58053.430475000001</v>
       </c>
       <c r="C260" s="1">
-        <v>21.17</v>
+        <v>22.452999999999999</v>
       </c>
       <c r="D260" s="1">
-        <v>0.1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B261" s="1">
-        <v>58052.017958999997</v>
+        <v>58053.433044999998</v>
       </c>
       <c r="C261" s="1">
-        <v>21.22</v>
+        <v>22.512</v>
       </c>
       <c r="D261" s="1">
-        <v>0.1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B262" s="1">
-        <v>58052.022758999999</v>
+        <v>58053.435603999998</v>
       </c>
       <c r="C262" s="1">
-        <v>21.18</v>
+        <v>22.38</v>
       </c>
       <c r="D262" s="1">
-        <v>0.1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B263" s="1">
-        <v>58052.024857999997</v>
+        <v>58053.438163999999</v>
       </c>
       <c r="C263" s="1">
-        <v>21.17</v>
+        <v>22.352</v>
       </c>
       <c r="D263" s="1">
-        <v>0.1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B264" s="1">
-        <v>58054.093273999999</v>
+        <v>58053.443303</v>
       </c>
       <c r="C264" s="1">
-        <v>22.19</v>
+        <v>22.108000000000001</v>
       </c>
       <c r="D264" s="1">
-        <v>0.14000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B265" s="1">
-        <v>58054.097274</v>
+        <v>58053.445863000001</v>
       </c>
       <c r="C265" s="1">
-        <v>22.4</v>
+        <v>21.975999999999999</v>
       </c>
       <c r="D265" s="1">
-        <v>0.16</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B266" s="1">
-        <v>58054.101173000003</v>
+        <v>58053.448562999998</v>
       </c>
       <c r="C266" s="1">
-        <v>22.3</v>
+        <v>21.885999999999999</v>
       </c>
       <c r="D266" s="1">
-        <v>0.14000000000000001</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B267" s="1">
-        <v>58054.105072999999</v>
+        <v>58053.451172000001</v>
       </c>
       <c r="C267" s="1">
-        <v>22.56</v>
+        <v>21.794</v>
       </c>
       <c r="D267" s="1">
-        <v>0.17</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B268" s="1">
-        <v>58054.108972000002</v>
+        <v>58053.453772000001</v>
       </c>
       <c r="C268" s="1">
-        <v>22.6</v>
+        <v>21.843</v>
       </c>
       <c r="D268" s="1">
-        <v>0.17</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B269" s="1">
-        <v>58054.112871999998</v>
+        <v>58053.456331000001</v>
       </c>
       <c r="C269" s="1">
-        <v>23.07</v>
+        <v>21.754999999999999</v>
       </c>
       <c r="D269" s="1">
-        <v>0.27</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5013,13 +5013,13 @@
         <v>5</v>
       </c>
       <c r="B270" s="1">
-        <v>58054.116771000001</v>
+        <v>58054.093273999999</v>
       </c>
       <c r="C270" s="1">
-        <v>22.81</v>
+        <v>22.19</v>
       </c>
       <c r="D270" s="1">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>5</v>
@@ -5030,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="B271" s="1">
-        <v>58054.120669999997</v>
+        <v>58054.097274</v>
       </c>
       <c r="C271" s="1">
-        <v>23.43</v>
+        <v>22.4</v>
       </c>
       <c r="D271" s="1">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>5</v>
@@ -5047,13 +5047,13 @@
         <v>5</v>
       </c>
       <c r="B272" s="1">
-        <v>58054.144067000001</v>
+        <v>58054.101173000003</v>
       </c>
       <c r="C272" s="1">
-        <v>23.63</v>
+        <v>22.3</v>
       </c>
       <c r="D272" s="1">
-        <v>0.41</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>5</v>
@@ -5064,13 +5064,13 @@
         <v>5</v>
       </c>
       <c r="B273" s="1">
-        <v>58054.190961</v>
+        <v>58054.105072999999</v>
       </c>
       <c r="C273" s="1">
-        <v>22.93</v>
+        <v>22.56</v>
       </c>
       <c r="D273" s="1">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>5</v>
@@ -5081,13 +5081,13 @@
         <v>5</v>
       </c>
       <c r="B274" s="1">
-        <v>58054.198759999999</v>
+        <v>58054.108972000002</v>
       </c>
       <c r="C274" s="1">
-        <v>23.05</v>
+        <v>22.6</v>
       </c>
       <c r="D274" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>5</v>
@@ -5098,13 +5098,13 @@
         <v>5</v>
       </c>
       <c r="B275" s="1">
-        <v>58054.206558999998</v>
+        <v>58054.112871999998</v>
       </c>
       <c r="C275" s="1">
-        <v>22.46</v>
+        <v>23.07</v>
       </c>
       <c r="D275" s="1">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>5</v>
@@ -5115,13 +5115,13 @@
         <v>5</v>
       </c>
       <c r="B276" s="1">
-        <v>58054.210458000001</v>
+        <v>58054.116771000001</v>
       </c>
       <c r="C276" s="1">
-        <v>22.73</v>
+        <v>22.81</v>
       </c>
       <c r="D276" s="1">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>5</v>
@@ -5132,13 +5132,13 @@
         <v>5</v>
       </c>
       <c r="B277" s="1">
-        <v>58054.214357999997</v>
+        <v>58054.120669999997</v>
       </c>
       <c r="C277" s="1">
-        <v>22.11</v>
+        <v>23.43</v>
       </c>
       <c r="D277" s="1">
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>5</v>
@@ -5149,13 +5149,13 @@
         <v>5</v>
       </c>
       <c r="B278" s="1">
-        <v>58054.218257</v>
+        <v>58054.144067000001</v>
       </c>
       <c r="C278" s="1">
-        <v>22.19</v>
+        <v>23.63</v>
       </c>
       <c r="D278" s="1">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>5</v>
@@ -5166,13 +5166,13 @@
         <v>5</v>
       </c>
       <c r="B279" s="1">
-        <v>58054.265151</v>
+        <v>58054.190961</v>
       </c>
       <c r="C279" s="1">
-        <v>22.69</v>
+        <v>22.93</v>
       </c>
       <c r="D279" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>5</v>
@@ -5183,13 +5183,13 @@
         <v>5</v>
       </c>
       <c r="B280" s="1">
-        <v>58054.269050000003</v>
+        <v>58054.198759999999</v>
       </c>
       <c r="C280" s="1">
-        <v>22.68</v>
+        <v>23.05</v>
       </c>
       <c r="D280" s="1">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>5</v>
@@ -5200,13 +5200,13 @@
         <v>5</v>
       </c>
       <c r="B281" s="1">
-        <v>58054.272949999999</v>
+        <v>58054.206558999998</v>
       </c>
       <c r="C281" s="1">
-        <v>22.9</v>
+        <v>22.46</v>
       </c>
       <c r="D281" s="1">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>5</v>
@@ -5217,13 +5217,13 @@
         <v>5</v>
       </c>
       <c r="B282" s="1">
-        <v>58054.288647000001</v>
+        <v>58054.210458000001</v>
       </c>
       <c r="C282" s="1">
-        <v>24.01</v>
+        <v>22.73</v>
       </c>
       <c r="D282" s="1">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>5</v>
@@ -5234,13 +5234,13 @@
         <v>5</v>
       </c>
       <c r="B283" s="1">
-        <v>58055.970818000002</v>
+        <v>58054.214357999997</v>
       </c>
       <c r="C283" s="1">
-        <v>22.15</v>
+        <v>22.11</v>
       </c>
       <c r="D283" s="1">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>5</v>
@@ -5251,13 +5251,13 @@
         <v>5</v>
       </c>
       <c r="B284" s="1">
-        <v>58056.088902000003</v>
+        <v>58054.218257</v>
       </c>
       <c r="C284" s="1">
-        <v>22.49</v>
+        <v>22.19</v>
       </c>
       <c r="D284" s="1">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>5</v>
@@ -5268,13 +5268,13 @@
         <v>5</v>
       </c>
       <c r="B285" s="1">
-        <v>58056.095100999999</v>
+        <v>58054.265151</v>
       </c>
       <c r="C285" s="1">
-        <v>22.2</v>
+        <v>22.69</v>
       </c>
       <c r="D285" s="1">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>5</v>
@@ -5282,257 +5282,257 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B286" s="1">
-        <v>58051.997062000002</v>
+        <v>58054.269050000003</v>
       </c>
       <c r="C286" s="1">
-        <v>22.07</v>
+        <v>22.68</v>
       </c>
       <c r="D286" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B287" s="1">
-        <v>58051.999162</v>
+        <v>58054.272949999999</v>
       </c>
       <c r="C287" s="1">
-        <v>21.75</v>
+        <v>22.9</v>
       </c>
       <c r="D287" s="1">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B288" s="1">
-        <v>58052.000562000001</v>
+        <v>58054.288647000001</v>
       </c>
       <c r="C288" s="1">
-        <v>22.18</v>
+        <v>24.01</v>
       </c>
       <c r="D288" s="1">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B289" s="1">
-        <v>58052.026257999998</v>
+        <v>58055.234145000002</v>
       </c>
       <c r="C289" s="1">
-        <v>21.75</v>
+        <v>23.184999999999999</v>
       </c>
       <c r="D289" s="1">
-        <v>0.1</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B290" s="1">
-        <v>58052.028358000003</v>
+        <v>58055.258014999999</v>
       </c>
       <c r="C290" s="1">
-        <v>21.69</v>
+        <v>22.77</v>
       </c>
       <c r="D290" s="1">
-        <v>0.1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B291" s="1">
-        <v>58052.029757999997</v>
+        <v>58055.262644000002</v>
       </c>
       <c r="C291" s="1">
-        <v>21.68</v>
+        <v>22.69</v>
       </c>
       <c r="D291" s="1">
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B292" s="1">
-        <v>58051.977664999999</v>
+        <v>58055.263573999997</v>
       </c>
       <c r="C292" s="1">
-        <v>23.53</v>
+        <v>22.754999999999999</v>
       </c>
       <c r="D292" s="1">
-        <v>0.12</v>
+        <v>0.157</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B293" s="1">
-        <v>58051.979764999996</v>
+        <v>58055.268433999998</v>
       </c>
       <c r="C293" s="1">
-        <v>23.1</v>
+        <v>23.225000000000001</v>
       </c>
       <c r="D293" s="1">
-        <v>0.12</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B294" s="1">
-        <v>58051.981163999997</v>
+        <v>58055.272783</v>
       </c>
       <c r="C294" s="1">
-        <v>23.25</v>
+        <v>23.135000000000002</v>
       </c>
       <c r="D294" s="1">
-        <v>0.12</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B295" s="1">
-        <v>58051.992263</v>
+        <v>58055.286520000001</v>
       </c>
       <c r="C295" s="1">
-        <v>23.08</v>
+        <v>22.242000000000001</v>
       </c>
       <c r="D295" s="1">
-        <v>0.12</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B296" s="1">
-        <v>58051.993563000004</v>
+        <v>58055.298268999999</v>
       </c>
       <c r="C296" s="1">
-        <v>22.86</v>
+        <v>22.49</v>
       </c>
       <c r="D296" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B297" s="1">
-        <v>58051.994961999997</v>
+        <v>58055.309334999998</v>
       </c>
       <c r="C297" s="1">
-        <v>22.95</v>
+        <v>22.344999999999999</v>
       </c>
       <c r="D297" s="1">
-        <v>0.12</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B298" s="1">
-        <v>58052.032457000001</v>
+        <v>58055.318217</v>
       </c>
       <c r="C298" s="1">
-        <v>22.63</v>
+        <v>22.515000000000001</v>
       </c>
       <c r="D298" s="1">
-        <v>0.12</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B299" s="1">
-        <v>58052.033857000002</v>
+        <v>58055.320749999999</v>
       </c>
       <c r="C299" s="1">
-        <v>22.46</v>
+        <v>22.181999999999999</v>
       </c>
       <c r="D299" s="1">
-        <v>0.12</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B300" s="1">
-        <v>58052.035257000003</v>
+        <v>58055.322216</v>
       </c>
       <c r="C300" s="1">
-        <v>22.71</v>
+        <v>22.09</v>
       </c>
       <c r="D300" s="1">
-        <v>0.12</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5540,13 +5540,13 @@
         <v>1</v>
       </c>
       <c r="B301" s="1">
-        <v>58055.234145000002</v>
+        <v>58055.332290999999</v>
       </c>
       <c r="C301" s="1">
-        <v>23.184999999999999</v>
+        <v>22.309000000000001</v>
       </c>
       <c r="D301" s="1">
-        <v>0.25600000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>1</v>
@@ -5557,13 +5557,13 @@
         <v>1</v>
       </c>
       <c r="B302" s="1">
-        <v>58055.263573999997</v>
+        <v>58055.343306000002</v>
       </c>
       <c r="C302" s="1">
-        <v>22.754999999999999</v>
+        <v>22.416</v>
       </c>
       <c r="D302" s="1">
-        <v>0.157</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>1</v>
@@ -5574,13 +5574,13 @@
         <v>1</v>
       </c>
       <c r="B303" s="1">
-        <v>58055.286520000001</v>
+        <v>58055.354831999997</v>
       </c>
       <c r="C303" s="1">
-        <v>22.242000000000001</v>
+        <v>23.119</v>
       </c>
       <c r="D303" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>1</v>
@@ -5591,13 +5591,13 @@
         <v>1</v>
       </c>
       <c r="B304" s="1">
-        <v>58055.298268999999</v>
+        <v>58055.827787000002</v>
       </c>
       <c r="C304" s="1">
-        <v>22.49</v>
+        <v>22.469000000000001</v>
       </c>
       <c r="D304" s="1">
-        <v>0.13</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>1</v>
@@ -5608,13 +5608,13 @@
         <v>1</v>
       </c>
       <c r="B305" s="1">
-        <v>58055.309334999998</v>
+        <v>58055.845793</v>
       </c>
       <c r="C305" s="1">
-        <v>22.344999999999999</v>
+        <v>22.831</v>
       </c>
       <c r="D305" s="1">
-        <v>0.14799999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>1</v>
@@ -5625,13 +5625,13 @@
         <v>1</v>
       </c>
       <c r="B306" s="1">
-        <v>58055.320749999999</v>
+        <v>58055.877675999996</v>
       </c>
       <c r="C306" s="1">
-        <v>22.181999999999999</v>
+        <v>23.401</v>
       </c>
       <c r="D306" s="1">
-        <v>8.1000000000000003E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>1</v>
@@ -5639,53 +5639,53 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B307" s="1">
-        <v>58055.332290999999</v>
+        <v>58055.970818000002</v>
       </c>
       <c r="C307" s="1">
-        <v>22.309000000000001</v>
+        <v>22.15</v>
       </c>
       <c r="D307" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B308" s="1">
-        <v>58055.343306000002</v>
+        <v>58056.088902000003</v>
       </c>
       <c r="C308" s="1">
-        <v>22.416</v>
+        <v>22.49</v>
       </c>
       <c r="D308" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B309" s="1">
-        <v>58055.354831999997</v>
+        <v>58056.095100999999</v>
       </c>
       <c r="C309" s="1">
-        <v>23.119</v>
+        <v>22.2</v>
       </c>
       <c r="D309" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6199,6 +6199,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E339">
+    <sortCondition ref="B1:B339"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>